--- a/results/yq_test/qft_cz/Rb2Re4/total_qft.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/total_qft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/qft_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_32C184B3DD0ADB02D982D7F0505ED87656CD8453" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DADAF700-6A86-974A-9B41-2ECD52B79C23}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="11_32C184B3DD0ADB02D982D7F0505ED87656CD8453" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFD8B227-D86D-0548-A696-1A1C3373B7E3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>file name</t>
   </si>
@@ -240,6 +240,47 @@
   </si>
   <si>
     <t>Enola Fidelity(dynamic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tetris(HGA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inserted SWAP</t>
+  </si>
+  <si>
+    <t>gate_cycle</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tetris(MCTS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tetris own mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tetris with our mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tetris with its mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movement_fidelity</t>
+  </si>
+  <si>
+    <t>SWAP fidelity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,6 +357,1654 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>QFT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> circuits</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tetris(MCTS)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$U$2:$U$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>6.5381697219813956E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5215753402435259E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8291545873001168E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4081522974720959E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8829293607711867E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.146020896999251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21745383931288614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24087542975245219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31723343347638294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26781888636403539</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35708914175278716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35859274692658549</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52687932845858487</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56774686719416567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66406785622870035</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69491238608864614</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69602502470798133</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85186256933700621</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0048402690421885</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96348590482188912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1332088112726555</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0371866299015062</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1175573608056428</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0550190603066407</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0956990398453574</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0255759063175114</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0954028298769898</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0593786250559187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4053121560425117</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2990197584744663</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4667444454917471</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.376727849483113</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9551091188667939</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2185039032019889</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.93737137475646</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9558657745110068</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.409509032782517</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2179174523164304</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5767637164204484</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4429887751080446</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7756636019020062</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5933644459735565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9767408360688838</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9786392524484797</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5902427509094008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A8A3-0045-B312-24924B183306}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tetris with same mapping(MCTS)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$AE$2:$AE$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>6.0222168157300664E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8679436670243254E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5229856629561117E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4899061011292349E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5765519750758656E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11990597277828517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11296356809749739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16251490667634444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20620887223638443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23516503964398641</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31789822552344399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29981471103662327</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43545839006951775</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49590754740227994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6444818946866997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.7210332746204966</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67643761551770776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70164900276338471</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88725211737653442</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0353295675585936</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.002614502151314</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67801284587886046</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.84982009186748164</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.93747688595013734</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.80184360395409904</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93415606814113161</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1933657597794791</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2554108001500677</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1570957623799967</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.259840423431307</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5712525517338594</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4812005172955021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.4590514461622666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8725163061742618</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8916118881914024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0996577939075203</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1480700292945341</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0940491597569766</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.374477342289552</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2926633342758853</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5797801292384612</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.6783471602774109</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5000507616408565</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6582093508684714</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.8580420950055085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A8A3-0045-B312-24924B183306}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="963234559"/>
+        <c:axId val="1288805679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="963234559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Qubits</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1288805679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1288805679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Log(ratio)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="963234559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2AFD58-F46E-0F17-F981-8B57BD289A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,23 +2292,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="3"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="3"/>
+    <col min="12" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,25 +2324,85 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -665,27 +2416,94 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>26</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.84682666136623297</v>
       </c>
-      <c r="H2" s="3">
-        <f>C2/G2</f>
+      <c r="I2" s="3">
+        <f>C2/H2</f>
         <v>1.0365721930807974</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.84884204654971096</v>
       </c>
-      <c r="J2" s="3">
-        <f>C2/I2</f>
+      <c r="K2" s="3">
+        <f>C2/J2</f>
         <v>1.0341110847414641</v>
       </c>
+      <c r="L2">
+        <v>0.86468098268877081</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>29</v>
+      </c>
+      <c r="O2">
+        <f>C2/L2</f>
+        <v>1.0151685848370693</v>
+      </c>
+      <c r="P2">
+        <v>0.86468098268877081</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>POWER(0.995,Q2)</f>
+        <v>0.995</v>
+      </c>
+      <c r="S2">
+        <v>29</v>
+      </c>
+      <c r="T2">
+        <f>C2/P2</f>
+        <v>1.0151685848370693</v>
+      </c>
+      <c r="U2">
+        <f>LOG(T2)</f>
+        <v>6.5381697219813956E-3</v>
+      </c>
+      <c r="W2">
+        <v>0.87778479749810145</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>26</v>
+      </c>
+      <c r="Z2">
+        <f>C2/W2</f>
+        <v>1.0000138667628093</v>
+      </c>
+      <c r="AA2">
+        <v>0.87778479749810145</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>26</v>
+      </c>
+      <c r="AD2">
+        <f>C2/AA2</f>
+        <v>1.0000138667628093</v>
+      </c>
+      <c r="AE2">
+        <f>LOG(AD2)</f>
+        <v>6.0222168157300664E-6</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -699,27 +2517,94 @@
         <v>6</v>
       </c>
       <c r="E3">
+        <v>0.99964774805704382</v>
+      </c>
+      <c r="F3">
         <v>39</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.77062462521499497</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H27" si="0">C3/G3</f>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I27" si="0">C3/H3</f>
         <v>1.0649468334743841</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.77577300338635702</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J27" si="1">C3/I3</f>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K27" si="1">C3/J3</f>
         <v>1.0578793678534002</v>
       </c>
+      <c r="L3">
+        <v>0.78611419760698209</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>48</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O47" si="2">C3/L3</f>
+        <v>1.0439631505426508</v>
+      </c>
+      <c r="P3">
+        <v>0.77438165469602305</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R47" si="3">POWER(0.995,Q3)</f>
+        <v>0.98014950062500006</v>
+      </c>
+      <c r="S3">
+        <v>48</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T47" si="4">C3/P3</f>
+        <v>1.0597800831713164</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U47" si="5">LOG(T3)</f>
+        <v>2.5215753402435259E-2</v>
+      </c>
+      <c r="W3">
+        <v>0.81012302787087764</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>40</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z47" si="6">C3/W3</f>
+        <v>1.0130242274151193</v>
+      </c>
+      <c r="AA3">
+        <v>0.78612457438287708</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>37</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD47" si="7">C3/AA3</f>
+        <v>1.0439493703200133</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE47" si="8">LOG(AD3)</f>
+        <v>1.8679436670243254E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -733,27 +2618,94 @@
         <v>5</v>
       </c>
       <c r="E4">
+        <v>0.99970469930855943</v>
+      </c>
+      <c r="F4">
         <v>51</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.69575812416823601</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>1.1107165623197652</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.71045635697159304</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <f t="shared" si="1"/>
         <v>1.0877375707866186</v>
       </c>
+      <c r="L4">
+        <v>0.68659969871499027</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>61</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>1.1255322035947748</v>
+      </c>
+      <c r="P4">
+        <v>0.70757094008172938</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>0.97037250935626573</v>
+      </c>
+      <c r="S4">
+        <v>51</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="4"/>
+        <v>1.0921732763543521</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="5"/>
+        <v>3.8291545873001168E-2</v>
+      </c>
+      <c r="W4">
+        <v>0.72917396896847186</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>51</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="6"/>
+        <v>1.0598157706801041</v>
+      </c>
+      <c r="AA4">
+        <v>0.72917484397775956</v>
+      </c>
+      <c r="AB4">
+        <v>4</v>
+      </c>
+      <c r="AC4">
+        <v>50</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="7"/>
+        <v>1.0598144989019425</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="8"/>
+        <v>2.5229856629561117E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -767,27 +2719,94 @@
         <v>6</v>
       </c>
       <c r="E5">
+        <v>0.99964624235761468</v>
+      </c>
+      <c r="F5">
         <v>68</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.60494720071101904</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>1.1721822984469974</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.61612264189566601</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>1.1509208588516693</v>
       </c>
+      <c r="L5">
+        <v>0.60269256331963117</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>79</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>1.1765673634045686</v>
+      </c>
+      <c r="P5">
+        <v>0.61183047771356813</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>0.95111013046577197</v>
+      </c>
+      <c r="S5">
+        <v>70</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>1.15899489482525</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="5"/>
+        <v>6.4081522974720959E-2</v>
+      </c>
+      <c r="W5">
+        <v>0.64976148462922823</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>69</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="6"/>
+        <v>1.0913364625992816</v>
+      </c>
+      <c r="AA5">
+        <v>0.66959710772930725</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>72</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="7"/>
+        <v>1.0590075613874741</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="8"/>
+        <v>2.4899061011292349E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -801,27 +2820,94 @@
         <v>13</v>
       </c>
       <c r="E6">
+        <v>0.99923054343314377</v>
+      </c>
+      <c r="F6">
         <v>84</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.52617424589286099</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>1.2386870242328409</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.53904065541784396</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
         <v>1.2091206930723311</v>
       </c>
+      <c r="L6">
+        <v>0.52376304808889662</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>96</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>1.2443894491051708</v>
+      </c>
+      <c r="P6">
+        <v>0.55623957160452719</v>
+      </c>
+      <c r="Q6">
+        <v>11</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0.94635457981344306</v>
+      </c>
+      <c r="S6">
+        <v>87</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>1.1717347059521619</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>6.8829293607711867E-2</v>
+      </c>
+      <c r="W6">
+        <v>0.5562355666940294</v>
+      </c>
+      <c r="X6">
+        <v>11</v>
+      </c>
+      <c r="Y6">
+        <v>93</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="6"/>
+        <v>1.1717431424724158</v>
+      </c>
+      <c r="AA6">
+        <v>0.57322570321661837</v>
+      </c>
+      <c r="AB6">
+        <v>9</v>
+      </c>
+      <c r="AC6">
+        <v>82</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="7"/>
+        <v>1.1370132344304338</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="8"/>
+        <v>5.5765519750758656E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -835,27 +2921,94 @@
         <v>16</v>
       </c>
       <c r="E7">
+        <v>0.9990298597111551</v>
+      </c>
+      <c r="F7">
         <v>105</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.433106720397895</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>1.3506988303811118</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.45099502623890397</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
         <v>1.2971245948103822</v>
       </c>
+      <c r="L7">
+        <v>0.37056685158525121</v>
+      </c>
+      <c r="M7">
+        <v>31</v>
+      </c>
+      <c r="N7">
+        <v>124</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>1.578653725148575</v>
+      </c>
+      <c r="P7">
+        <v>0.41795791056168169</v>
+      </c>
+      <c r="Q7">
+        <v>23</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0.89110905578020905</v>
+      </c>
+      <c r="S7">
+        <v>101</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>1.3996546683025466</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>0.146020896999251</v>
+      </c>
+      <c r="W7">
+        <v>0.45059022255490799</v>
+      </c>
+      <c r="X7">
+        <v>18</v>
+      </c>
+      <c r="Y7">
+        <v>105</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="6"/>
+        <v>1.2982899126275416</v>
+      </c>
+      <c r="AA7">
+        <v>0.44386149707130768</v>
+      </c>
+      <c r="AB7">
+        <v>19</v>
+      </c>
+      <c r="AC7">
+        <v>109</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="7"/>
+        <v>1.3179713593802764</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="8"/>
+        <v>0.11990597277828517</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -869,27 +3022,94 @@
         <v>16</v>
       </c>
       <c r="E8">
+        <v>0.99903311344674972</v>
+      </c>
+      <c r="F8">
         <v>125</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.36666032439941798</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>1.441874660243754</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.38296978925983999</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>1.3804698059605276</v>
       </c>
+      <c r="L8">
+        <v>0.27156820904627799</v>
+      </c>
+      <c r="M8">
+        <v>45</v>
+      </c>
+      <c r="N8">
+        <v>148</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>1.9467603830542011</v>
+      </c>
+      <c r="P8">
+        <v>0.32043326026404961</v>
+      </c>
+      <c r="Q8">
+        <v>34</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0.84330513605083379</v>
+      </c>
+      <c r="S8">
+        <v>124</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>1.6498856274552267</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="5"/>
+        <v>0.21745383931288614</v>
+      </c>
+      <c r="W8">
+        <v>0.37806188477211511</v>
+      </c>
+      <c r="X8">
+        <v>23</v>
+      </c>
+      <c r="Y8">
+        <v>136</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="6"/>
+        <v>1.3983907184585602</v>
+      </c>
+      <c r="AA8">
+        <v>0.40759407267735281</v>
+      </c>
+      <c r="AB8">
+        <v>18</v>
+      </c>
+      <c r="AC8">
+        <v>123</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="7"/>
+        <v>1.2970704583497994</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="8"/>
+        <v>0.11296356809749739</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -903,27 +3123,94 @@
         <v>23</v>
       </c>
       <c r="E9">
+        <v>0.99859683030328039</v>
+      </c>
+      <c r="F9">
         <v>150</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.28825826029183099</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>1.6079295044578759</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.30521061651160802</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>1.5186200497363926</v>
       </c>
+      <c r="L9">
+        <v>0.23248122637602181</v>
+      </c>
+      <c r="M9">
+        <v>47</v>
+      </c>
+      <c r="N9">
+        <v>157</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>1.9937049062071648</v>
+      </c>
+      <c r="P9">
+        <v>0.26617872213713478</v>
+      </c>
+      <c r="Q9">
+        <v>38</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0.82656510797472249</v>
+      </c>
+      <c r="S9">
+        <v>146</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>1.7413073363096974</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
+        <v>0.24087542975245219</v>
+      </c>
+      <c r="W9">
+        <v>0.26220216073780422</v>
+      </c>
+      <c r="X9">
+        <v>39</v>
+      </c>
+      <c r="Y9">
+        <v>153</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="6"/>
+        <v>1.7677160261483158</v>
+      </c>
+      <c r="AA9">
+        <v>0.31881141206404962</v>
+      </c>
+      <c r="AB9">
+        <v>26</v>
+      </c>
+      <c r="AC9">
+        <v>153</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="7"/>
+        <v>1.4538342860004512</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="8"/>
+        <v>0.16251490667634444</v>
+      </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -937,27 +3224,94 @@
         <v>27</v>
       </c>
       <c r="E10">
+        <v>0.99835050817029281</v>
+      </c>
+      <c r="F10">
         <v>174</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.21045938285663601</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>1.9435978631539219</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.23888616823640699</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>1.7123151575525615</v>
       </c>
+      <c r="L10">
+        <v>0.19408839559474239</v>
+      </c>
+      <c r="M10">
+        <v>51</v>
+      </c>
+      <c r="N10">
+        <v>180</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>2.1075366486873648</v>
+      </c>
+      <c r="P10">
+        <v>0.1970340444262563</v>
+      </c>
+      <c r="Q10">
+        <v>50</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0.77831255706864233</v>
+      </c>
+      <c r="S10">
+        <v>168</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>2.0760290841715174</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="5"/>
+        <v>0.31723343347638294</v>
+      </c>
+      <c r="W10">
+        <v>0.2000150113119307</v>
+      </c>
+      <c r="X10">
+        <v>49</v>
+      </c>
+      <c r="Y10">
+        <v>178</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="6"/>
+        <v>2.0450885366945037</v>
+      </c>
+      <c r="AA10">
+        <v>0.25442854435403089</v>
+      </c>
+      <c r="AB10">
+        <v>33</v>
+      </c>
+      <c r="AC10">
+        <v>163</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="7"/>
+        <v>1.6077142910178757</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="8"/>
+        <v>0.20620887223638443</v>
+      </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -971,27 +3325,94 @@
         <v>35</v>
       </c>
       <c r="E11">
+        <v>0.99786351507272264</v>
+      </c>
+      <c r="F11">
         <v>203</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.15264366394700801</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>2.2974697859850113</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.175374600905876</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
         <v>1.9996864091426727</v>
       </c>
+      <c r="L11">
+        <v>0.1465731997350434</v>
+      </c>
+      <c r="M11">
+        <v>60</v>
+      </c>
+      <c r="N11">
+        <v>224</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>2.3926216155084381</v>
+      </c>
+      <c r="P11">
+        <v>0.18928216916161239</v>
+      </c>
+      <c r="Q11">
+        <v>43</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0.80610659092639603</v>
+      </c>
+      <c r="S11">
+        <v>186</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>1.8527588070954095</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="5"/>
+        <v>0.26781888636403539</v>
+      </c>
+      <c r="W11">
+        <v>0.15334560603589339</v>
+      </c>
+      <c r="X11">
+        <v>57</v>
+      </c>
+      <c r="Y11">
+        <v>197</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="6"/>
+        <v>2.2869530794264428</v>
+      </c>
+      <c r="AA11">
+        <v>0.204062663545517</v>
+      </c>
+      <c r="AB11">
+        <v>38</v>
+      </c>
+      <c r="AC11">
+        <v>185</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="7"/>
+        <v>1.7185613470250365</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="8"/>
+        <v>0.23516503964398641</v>
+      </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1005,27 +3426,94 @@
         <v>38</v>
       </c>
       <c r="E12">
+        <v>0.997676961296731</v>
+      </c>
+      <c r="F12">
         <v>231</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.12350071110380501</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>2.4554103270553349</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.13472466435111399</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <f t="shared" si="1"/>
         <v>2.2508493370794791</v>
       </c>
+      <c r="L12">
+        <v>0.1031916665789733</v>
+      </c>
+      <c r="M12">
+        <v>74</v>
+      </c>
+      <c r="N12">
+        <v>256</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>2.9386570785818722</v>
+      </c>
+      <c r="P12">
+        <v>0.13326140707084341</v>
+      </c>
+      <c r="Q12">
+        <v>57</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0.75147684352085931</v>
+      </c>
+      <c r="S12">
+        <v>213</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>2.2755644571706459</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
+        <v>0.35708914175278716</v>
+      </c>
+      <c r="W12">
+        <v>0.12176325740526241</v>
+      </c>
+      <c r="X12">
+        <v>63</v>
+      </c>
+      <c r="Y12">
+        <v>218</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="6"/>
+        <v>2.4904468548642371</v>
+      </c>
+      <c r="AA12">
+        <v>0.14584626469720219</v>
+      </c>
+      <c r="AB12">
+        <v>51</v>
+      </c>
+      <c r="AC12">
+        <v>205</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="7"/>
+        <v>2.0792093789480335</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="8"/>
+        <v>0.31789822552344399</v>
+      </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1039,374 +3527,1187 @@
         <v>47</v>
       </c>
       <c r="E13">
+        <v>0.99710416995926299</v>
+      </c>
+      <c r="F13">
         <v>264</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>8.134615512493E-2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>3.1230252744954612</v>
       </c>
-      <c r="J13" s="3" t="e">
+      <c r="J13">
+        <v>6.3742614184798804E-2</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9854985818697286</v>
+      </c>
+      <c r="L13">
+        <v>8.2352288886931996E-2</v>
+      </c>
+      <c r="M13">
+        <v>78</v>
+      </c>
+      <c r="N13">
+        <v>267</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>3.0848699152367818</v>
+      </c>
+      <c r="P13">
+        <v>0.11125506264545799</v>
+      </c>
+      <c r="Q13">
+        <v>58</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0.74771945930325501</v>
+      </c>
+      <c r="S13">
+        <v>232</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>2.2834565223136507</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>0.35859274692658549</v>
+      </c>
+      <c r="W13">
+        <v>8.2352991629462191E-2</v>
+      </c>
+      <c r="X13">
+        <v>78</v>
+      </c>
+      <c r="Y13">
+        <v>263</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="6"/>
+        <v>3.0848435911258218</v>
+      </c>
+      <c r="AA13">
+        <v>0.12737899513229861</v>
+      </c>
+      <c r="AB13">
+        <v>49</v>
+      </c>
+      <c r="AC13">
+        <v>229</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="7"/>
+        <v>1.9944112306297206</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="8"/>
+        <v>0.29981471103662327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>0.21558240951702859</v>
+      </c>
+      <c r="D14">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>0.99705834778905555</v>
+      </c>
+      <c r="F14">
+        <v>290</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>5.2850998720244499E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0790602777095684</v>
+      </c>
+      <c r="J14">
+        <v>6.3742614184798804E-2</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3820766887913454</v>
+      </c>
+      <c r="L14">
+        <v>4.1424640614230568E-2</v>
+      </c>
+      <c r="M14">
+        <v>113</v>
+      </c>
+      <c r="N14">
+        <v>300</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>5.204207117320645</v>
+      </c>
+      <c r="P14">
+        <v>6.4081695381845702E-2</v>
+      </c>
+      <c r="Q14">
+        <v>84</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0.65635497682884381</v>
+      </c>
+      <c r="S14">
+        <v>239</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>3.3641808044002364</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="5"/>
+        <v>0.52687932845858487</v>
+      </c>
+      <c r="W14">
+        <v>5.5126461082122498E-2</v>
+      </c>
+      <c r="X14">
+        <v>94</v>
+      </c>
+      <c r="Y14">
+        <v>286</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="6"/>
+        <v>3.9106883570101316</v>
+      </c>
+      <c r="AA14">
+        <v>7.9096074746327141E-2</v>
+      </c>
+      <c r="AB14">
+        <v>70</v>
+      </c>
+      <c r="AC14">
+        <v>244</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="7"/>
+        <v>2.7255765878197291</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="8"/>
+        <v>0.43545839006951775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>0.17708110953582459</v>
+      </c>
+      <c r="D15">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>0.99660301739164203</v>
+      </c>
+      <c r="F15">
+        <v>319</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>3.3480189161957198E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>5.289131094188618</v>
+      </c>
+      <c r="J15">
+        <v>4.3829147313446198E-2</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0402590602418238</v>
+      </c>
+      <c r="L15">
+        <v>2.1266056821507239E-2</v>
+      </c>
+      <c r="M15">
+        <v>145</v>
+      </c>
+      <c r="N15">
+        <v>334</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>8.3269367246651562</v>
+      </c>
+      <c r="P15">
+        <v>4.7909911351535182E-2</v>
+      </c>
+      <c r="Q15">
+        <v>91</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0.63372428176440931</v>
+      </c>
+      <c r="S15">
+        <v>274</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>3.6961268459986489</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>0.56774686719416567</v>
+      </c>
+      <c r="W15">
+        <v>3.0971771574335141E-2</v>
+      </c>
+      <c r="X15">
+        <v>120</v>
+      </c>
+      <c r="Y15">
+        <v>324</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="6"/>
+        <v>5.7175001795042109</v>
+      </c>
+      <c r="AA15">
+        <v>5.652813887860219E-2</v>
+      </c>
+      <c r="AB15">
+        <v>80</v>
+      </c>
+      <c r="AC15">
+        <v>272</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="7"/>
+        <v>3.1326187815260935</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="8"/>
+        <v>0.49590754740227994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>0.14728262982144749</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>0.99658878828667163</v>
+      </c>
+      <c r="F16">
+        <v>355</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>2.06771406077902E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>7.122968916019178</v>
+      </c>
+      <c r="J16">
+        <v>2.95889014102069E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9776308954357225</v>
+      </c>
+      <c r="L16">
+        <v>1.7488466864965319E-2</v>
+      </c>
+      <c r="M16">
+        <v>146</v>
+      </c>
+      <c r="N16">
+        <v>360</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>8.421700481732854</v>
+      </c>
+      <c r="P16">
+        <v>3.1921528162708337E-2</v>
+      </c>
+      <c r="Q16">
+        <v>106</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>0.5878229785513488</v>
+      </c>
+      <c r="S16">
+        <v>285</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>4.613896586364163</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>0.66406785622870035</v>
+      </c>
+      <c r="W16">
+        <v>1.8572720467171549E-2</v>
+      </c>
+      <c r="X16">
+        <v>142</v>
+      </c>
+      <c r="Y16">
+        <v>359</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="6"/>
+        <v>7.930051501166929</v>
+      </c>
+      <c r="AA16">
+        <v>3.3394091705359973E-2</v>
+      </c>
+      <c r="AB16">
+        <v>103</v>
+      </c>
+      <c r="AC16">
+        <v>289</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="7"/>
+        <v>4.4104397604504291</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="8"/>
+        <v>0.6444818946866997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>0.1176263936908758</v>
+      </c>
+      <c r="D17">
+        <v>68</v>
+      </c>
+      <c r="E17">
+        <v>0.99580284851892797</v>
+      </c>
+      <c r="F17">
+        <v>388</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>1.19408623393308E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>9.850745310364907</v>
+      </c>
+      <c r="J17">
+        <v>1.8057595133634401E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>6.5139567489683472</v>
+      </c>
+      <c r="L17">
+        <v>1.069948484884636E-2</v>
+      </c>
+      <c r="M17">
+        <v>165</v>
+      </c>
+      <c r="N17">
+        <v>399</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>10.993650194622081</v>
+      </c>
+      <c r="P17">
+        <v>2.3746105670912631E-2</v>
+      </c>
+      <c r="Q17">
+        <v>112</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0.57040725875414666</v>
+      </c>
+      <c r="S17">
+        <v>324</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>4.9535024951463997</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="5"/>
+        <v>0.69491238608864614</v>
+      </c>
+      <c r="W17">
+        <v>1.9528233316910251E-2</v>
+      </c>
+      <c r="X17">
+        <v>125</v>
+      </c>
+      <c r="Y17">
+        <v>346</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="6"/>
+        <v>6.0234016965077206</v>
+      </c>
+      <c r="AA17">
+        <v>2.2359984984117291E-2</v>
+      </c>
+      <c r="AB17">
+        <v>116</v>
+      </c>
+      <c r="AC17">
+        <v>323</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="7"/>
+        <v>5.2605757013892447</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="8"/>
+        <v>0.7210332746204966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>9.5058436776177202E-2</v>
+      </c>
+      <c r="D18">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>0.99541619347777066</v>
+      </c>
+      <c r="F18">
+        <v>428</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>6.3851623947893997E-3</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>14.887395323531546</v>
+      </c>
+      <c r="K18" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L18">
+        <v>7.2007509890292254E-3</v>
+      </c>
+      <c r="M18">
+        <v>178</v>
+      </c>
+      <c r="N18">
+        <v>408</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>13.201183726670234</v>
+      </c>
+      <c r="P18">
+        <v>1.9141044961146311E-2</v>
+      </c>
+      <c r="Q18">
+        <v>113</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>0.56755522246037593</v>
+      </c>
+      <c r="S18">
+        <v>339</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="4"/>
+        <v>4.9662093667891565</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="5"/>
+        <v>0.69602502470798133</v>
+      </c>
+      <c r="W18">
+        <v>7.3097997793335557E-3</v>
+      </c>
+      <c r="X18">
+        <v>177</v>
+      </c>
+      <c r="Y18">
+        <v>410</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="6"/>
+        <v>13.004246305750909</v>
+      </c>
+      <c r="AA18">
+        <v>2.002410217248279E-2</v>
+      </c>
+      <c r="AB18">
+        <v>110</v>
+      </c>
+      <c r="AC18">
+        <v>342</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="7"/>
+        <v>4.7472009460083022</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="8"/>
+        <v>0.67643761551770776</v>
+      </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>0.21558240951702859</v>
-      </c>
-      <c r="D14">
-        <v>48</v>
-      </c>
-      <c r="E14">
-        <v>290</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>5.2850998720244499E-2</v>
-      </c>
-      <c r="H14" s="3">
+    <row r="19" spans="1:31">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>7.3454643660058855E-2</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>0.99417232502469</v>
+      </c>
+      <c r="F19">
+        <v>464</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>3.4867336930266501E-3</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>4.0790602777095684</v>
-      </c>
-      <c r="I14">
-        <v>6.3742614184798804E-2</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3820766887913454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>0.17708110953582459</v>
-      </c>
-      <c r="D15">
-        <v>55</v>
-      </c>
-      <c r="E15">
-        <v>319</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>3.3480189161957198E-2</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="0"/>
-        <v>5.289131094188618</v>
-      </c>
-      <c r="J15" s="3" t="e">
+        <v>21.066892434878426</v>
+      </c>
+      <c r="K19" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L19">
+        <v>3.5512123805362611E-3</v>
+      </c>
+      <c r="M19">
+        <v>210</v>
+      </c>
+      <c r="N19">
+        <v>452</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>20.684384877303966</v>
+      </c>
+      <c r="P19">
+        <v>1.0331340777537411E-2</v>
+      </c>
+      <c r="Q19">
+        <v>139</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0.49820516271462467</v>
+      </c>
+      <c r="S19">
+        <v>377</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="4"/>
+        <v>7.1098848873289784</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>0.85186256933700621</v>
+      </c>
+      <c r="W19">
+        <v>5.0949803271321788E-3</v>
+      </c>
+      <c r="X19">
+        <v>186</v>
+      </c>
+      <c r="Y19">
+        <v>430</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="6"/>
+        <v>14.417061292443579</v>
+      </c>
+      <c r="AA19">
+        <v>1.460058488314056E-2</v>
+      </c>
+      <c r="AB19">
+        <v>116</v>
+      </c>
+      <c r="AC19">
+        <v>370</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="7"/>
+        <v>5.0309384348621302</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="8"/>
+        <v>0.70164900276338471</v>
+      </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>0.14728262982144749</v>
-      </c>
-      <c r="D16">
-        <v>55</v>
-      </c>
-      <c r="E16">
-        <v>355</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="G16">
-        <v>2.06771406077902E-2</v>
-      </c>
-      <c r="H16" s="3">
+    <row r="20" spans="1:31">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>5.9287992660354873E-2</v>
+      </c>
+      <c r="D20">
+        <v>85</v>
+      </c>
+      <c r="E20">
+        <v>0.99470539787849743</v>
+      </c>
+      <c r="F20">
+        <v>509</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>1.71641571017045E-3</v>
+      </c>
+      <c r="I20" s="3">
         <f t="shared" si="0"/>
-        <v>7.122968916019178</v>
-      </c>
-      <c r="J16" s="3" t="e">
+        <v>34.541744350771083</v>
+      </c>
+      <c r="K20" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L20">
+        <v>2.172538636004031E-3</v>
+      </c>
+      <c r="M20">
+        <v>228</v>
+      </c>
+      <c r="N20">
+        <v>505</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>27.289729939810776</v>
+      </c>
+      <c r="P20">
+        <v>5.8630888751574654E-3</v>
+      </c>
+      <c r="Q20">
+        <v>162</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>0.4439551321314546</v>
+      </c>
+      <c r="S20">
+        <v>408</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="4"/>
+        <v>10.112074696933972</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="5"/>
+        <v>1.0048402690421885</v>
+      </c>
+      <c r="W20">
+        <v>3.117297498486491E-3</v>
+      </c>
+      <c r="X20">
+        <v>204</v>
+      </c>
+      <c r="Y20">
+        <v>452</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="6"/>
+        <v>19.019035779915249</v>
+      </c>
+      <c r="AA20">
+        <v>7.6862521780408722E-3</v>
+      </c>
+      <c r="AB20">
+        <v>144</v>
+      </c>
+      <c r="AC20">
+        <v>382</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="7"/>
+        <v>7.713511251912454</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="8"/>
+        <v>0.88725211737653442</v>
+      </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>0.1176263936908758</v>
-      </c>
-      <c r="D17">
-        <v>68</v>
-      </c>
-      <c r="E17">
-        <v>388</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>1.19408623393308E-2</v>
-      </c>
-      <c r="H17" s="3">
+    <row r="21" spans="1:31">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>4.4777199828180479E-2</v>
+      </c>
+      <c r="D21">
+        <v>104</v>
+      </c>
+      <c r="E21">
+        <v>0.99347928567854293</v>
+      </c>
+      <c r="F21">
+        <v>547</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>7.9595153799193695E-4</v>
+      </c>
+      <c r="I21" s="3">
         <f t="shared" si="0"/>
-        <v>9.850745310364907</v>
-      </c>
-      <c r="I17">
-        <v>1.8057595133634401E-2</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="1"/>
-        <v>6.5139567489683472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>9.5058436776177202E-2</v>
-      </c>
-      <c r="D18">
-        <v>74</v>
-      </c>
-      <c r="E18">
-        <v>428</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>6.3851623947893997E-3</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="0"/>
-        <v>14.887395323531546</v>
-      </c>
-      <c r="J18" s="3" t="e">
+        <v>56.256188587996768</v>
+      </c>
+      <c r="K21" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L21">
+        <v>1.019130025077946E-3</v>
+      </c>
+      <c r="M21">
+        <v>262</v>
+      </c>
+      <c r="N21">
+        <v>527</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>43.936689849517279</v>
+      </c>
+      <c r="P21">
+        <v>4.8704717243094097E-3</v>
+      </c>
+      <c r="Q21">
+        <v>158</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0.45294634323474448</v>
+      </c>
+      <c r="S21">
+        <v>416</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="4"/>
+        <v>9.1936063615130621</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>0.96348590482188912</v>
+      </c>
+      <c r="W21">
+        <v>1.335865511813306E-3</v>
+      </c>
+      <c r="X21">
+        <v>244</v>
+      </c>
+      <c r="Y21">
+        <v>539</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="6"/>
+        <v>33.51924234304083</v>
+      </c>
+      <c r="AA21">
+        <v>4.1278828518646277E-3</v>
+      </c>
+      <c r="AB21">
+        <v>169</v>
+      </c>
+      <c r="AC21">
+        <v>421</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="7"/>
+        <v>10.847497721005801</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="8"/>
+        <v>1.0353295675585936</v>
+      </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>7.3454643660058855E-2</v>
-      </c>
-      <c r="D19">
-        <v>94</v>
-      </c>
-      <c r="E19">
-        <v>464</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>3.4867336930266501E-3</v>
-      </c>
-      <c r="H19" s="3">
+    <row r="22" spans="1:31">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>3.4668326295181517E-2</v>
+      </c>
+      <c r="D22">
+        <v>109</v>
+      </c>
+      <c r="E22">
+        <v>0.99314055429848258</v>
+      </c>
+      <c r="F22">
+        <v>588</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>4.09847174176758E-4</v>
+      </c>
+      <c r="I22" s="3">
         <f t="shared" si="0"/>
-        <v>21.066892434878426</v>
-      </c>
-      <c r="J19" s="3" t="e">
+        <v>84.588423391763669</v>
+      </c>
+      <c r="J22">
+        <v>9.7545161640051105E-4</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>35.540795373439657</v>
+      </c>
+      <c r="L22">
+        <v>3.9513576752506202E-4</v>
+      </c>
+      <c r="M22">
+        <v>309</v>
+      </c>
+      <c r="N22">
+        <v>566</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>87.737757865674951</v>
+      </c>
+      <c r="P22">
+        <v>2.5510799189319292E-3</v>
+      </c>
+      <c r="Q22">
+        <v>185</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0.3956124386024385</v>
+      </c>
+      <c r="S22">
+        <v>438</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="4"/>
+        <v>13.589666884954449</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>1.1332088112726555</v>
+      </c>
+      <c r="W22">
+        <v>5.0261695642776891E-4</v>
+      </c>
+      <c r="X22">
+        <v>293</v>
+      </c>
+      <c r="Y22">
+        <v>565</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="6"/>
+        <v>68.975640100919875</v>
+      </c>
+      <c r="AA22">
+        <v>3.4460245991789571E-3</v>
+      </c>
+      <c r="AB22">
+        <v>165</v>
+      </c>
+      <c r="AC22">
+        <v>450</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="7"/>
+        <v>10.060382709816269</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="8"/>
+        <v>1.002614502151314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>2.6678574014406271E-2</v>
+      </c>
+      <c r="D23">
+        <v>104</v>
+      </c>
+      <c r="E23">
+        <v>0.99355141563312799</v>
+      </c>
+      <c r="F23">
+        <v>617</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>1.8066299610662299E-4</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>147.6703840262962</v>
+      </c>
+      <c r="K23" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L23">
+        <v>2.0743951537922261E-3</v>
+      </c>
+      <c r="M23">
+        <v>181</v>
+      </c>
+      <c r="N23">
+        <v>583</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>12.860892952644464</v>
+      </c>
+      <c r="P23">
+        <v>2.448927807603302E-3</v>
+      </c>
+      <c r="Q23">
+        <v>170</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>0.4265046070983024</v>
+      </c>
+      <c r="S23">
+        <v>464</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="4"/>
+        <v>10.893981411610437</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="5"/>
+        <v>1.0371866299015062</v>
+      </c>
+      <c r="W23">
+        <v>3.021791464890997E-3</v>
+      </c>
+      <c r="X23">
+        <v>156</v>
+      </c>
+      <c r="Y23">
+        <v>531</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="6"/>
+        <v>8.8287277015552199</v>
+      </c>
+      <c r="AA23">
+        <v>5.599506674962988E-3</v>
+      </c>
+      <c r="AB23">
+        <v>115</v>
+      </c>
+      <c r="AC23">
+        <v>468</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="7"/>
+        <v>4.7644507923695993</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="8"/>
+        <v>0.67801284587886046</v>
+      </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>5.9287992660354873E-2</v>
-      </c>
-      <c r="D20">
-        <v>85</v>
-      </c>
-      <c r="E20">
-        <v>509</v>
-      </c>
-      <c r="F20">
-        <v>9</v>
-      </c>
-      <c r="G20">
-        <v>1.71641571017045E-3</v>
-      </c>
-      <c r="H20" s="3">
+    <row r="24" spans="1:31">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>2.034216948950647E-2</v>
+      </c>
+      <c r="D24">
+        <v>106</v>
+      </c>
+      <c r="E24">
+        <v>0.99341032106647076</v>
+      </c>
+      <c r="F24">
+        <v>654</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1">
+        <v>7.1724786617318394E-5</v>
+      </c>
+      <c r="I24" s="3">
         <f t="shared" si="0"/>
-        <v>34.541744350771083</v>
-      </c>
-      <c r="J20" s="3" t="e">
+        <v>283.61422109263867</v>
+      </c>
+      <c r="K24" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L24">
+        <v>1.2013163256146221E-3</v>
+      </c>
+      <c r="M24">
+        <v>200</v>
+      </c>
+      <c r="N24">
+        <v>562</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>16.933233200754955</v>
+      </c>
+      <c r="P24">
+        <v>1.5518148649686929E-3</v>
+      </c>
+      <c r="Q24">
+        <v>183</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0.39959843297132747</v>
+      </c>
+      <c r="S24">
+        <v>484</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="4"/>
+        <v>13.108631672964973</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="5"/>
+        <v>1.1175573608056428</v>
+      </c>
+      <c r="W24">
+        <v>1.9730092871294768E-3</v>
+      </c>
+      <c r="X24">
+        <v>167</v>
+      </c>
+      <c r="Y24">
+        <v>580</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="6"/>
+        <v>10.310224904770829</v>
+      </c>
+      <c r="AA24">
+        <v>2.874598380942259E-3</v>
+      </c>
+      <c r="AB24">
+        <v>142</v>
+      </c>
+      <c r="AC24">
+        <v>492</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="7"/>
+        <v>7.0765257589961319</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="8"/>
+        <v>0.84982009186748164</v>
+      </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>4.4777199828180479E-2</v>
-      </c>
-      <c r="D21">
-        <v>104</v>
-      </c>
-      <c r="E21">
-        <v>547</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>7.9595153799193695E-4</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="0"/>
-        <v>56.256188587996768</v>
-      </c>
-      <c r="J21" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>3.4668326295181517E-2</v>
-      </c>
-      <c r="D22">
-        <v>109</v>
-      </c>
-      <c r="E22">
-        <v>588</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>4.09847174176758E-4</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="0"/>
-        <v>84.588423391763669</v>
-      </c>
-      <c r="I22">
-        <v>9.7545161640051105E-4</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="1"/>
-        <v>35.540795373439657</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>2.6678574014406271E-2</v>
-      </c>
-      <c r="D23">
-        <v>104</v>
-      </c>
-      <c r="E23">
-        <v>617</v>
-      </c>
-      <c r="F23">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>1.8066299610662299E-4</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="0"/>
-        <v>147.6703840262962</v>
-      </c>
-      <c r="J23" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>27</v>
-      </c>
-      <c r="C24">
-        <v>2.034216948950647E-2</v>
-      </c>
-      <c r="D24">
-        <v>106</v>
-      </c>
-      <c r="E24">
-        <v>654</v>
-      </c>
-      <c r="F24">
-        <v>11</v>
-      </c>
-      <c r="G24" s="1">
-        <v>7.1724786617318394E-5</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" si="0"/>
-        <v>283.61422109263867</v>
-      </c>
-      <c r="J24" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1420,24 +4721,94 @@
         <v>124</v>
       </c>
       <c r="E25">
+        <v>0.99227626862562057</v>
+      </c>
+      <c r="F25">
         <v>703</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>12</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>2.89491697231436E-5</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <f t="shared" si="0"/>
         <v>507.92740666810528</v>
       </c>
-      <c r="J25" s="3" t="e">
+      <c r="J25">
+        <v>1.02595914939189E-4</v>
+      </c>
+      <c r="K25" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>143.3202941012477</v>
+      </c>
+      <c r="L25">
+        <v>7.3107608081802306E-4</v>
+      </c>
+      <c r="M25">
+        <v>214</v>
+      </c>
+      <c r="N25">
+        <v>651</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>20.112922701859329</v>
+      </c>
+      <c r="P25">
+        <v>1.2954441650786131E-3</v>
+      </c>
+      <c r="Q25">
+        <v>176</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>0.41386834584198789</v>
+      </c>
+      <c r="S25">
+        <v>510</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="4"/>
+        <v>11.350606300950728</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="5"/>
+        <v>1.0550190603066407</v>
+      </c>
+      <c r="W25">
+        <v>5.4939619512001808E-4</v>
+      </c>
+      <c r="X25">
+        <v>233</v>
+      </c>
+      <c r="Y25">
+        <v>649</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="6"/>
+        <v>26.764067231042596</v>
+      </c>
+      <c r="AA25">
+        <v>1.6980906612630649E-3</v>
+      </c>
+      <c r="AB25">
+        <v>158</v>
+      </c>
+      <c r="AC25">
+        <v>514</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="7"/>
+        <v>8.6591823617556738</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="8"/>
+        <v>0.93747688595013734</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1451,24 +4822,94 @@
         <v>132</v>
       </c>
       <c r="E26">
+        <v>0.99163434214535917</v>
+      </c>
+      <c r="F26">
         <v>739</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>12</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>9.8151288577669894E-6</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>1101.5865523771295</v>
       </c>
-      <c r="J26" s="3" t="e">
+      <c r="J26" s="1">
+        <v>4.4761174352567798E-5</v>
+      </c>
+      <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>241.55340238396917</v>
+      </c>
+      <c r="L26">
+        <v>3.9066533422810992E-4</v>
+      </c>
+      <c r="M26">
+        <v>237</v>
+      </c>
+      <c r="N26">
+        <v>675</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>27.676409991503231</v>
+      </c>
+      <c r="P26">
+        <v>8.6739235765539351E-4</v>
+      </c>
+      <c r="Q26">
+        <v>184</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0.39760044080647089</v>
+      </c>
+      <c r="S26">
+        <v>536</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="4"/>
+        <v>12.465193939211991</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="5"/>
+        <v>1.0956990398453574</v>
+      </c>
+      <c r="W26">
+        <v>4.4062204825537251E-4</v>
+      </c>
+      <c r="X26">
+        <v>229</v>
+      </c>
+      <c r="Y26">
+        <v>667</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="6"/>
+        <v>24.538522305852354</v>
+      </c>
+      <c r="AA26">
+        <v>1.7063614353675009E-3</v>
+      </c>
+      <c r="AB26">
+        <v>139</v>
+      </c>
+      <c r="AC26">
+        <v>546</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="7"/>
+        <v>6.3364148623273193</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="8"/>
+        <v>0.80184360395409904</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1482,27 +4923,94 @@
         <v>135</v>
       </c>
       <c r="E27">
+        <v>0.99154779450569996</v>
+      </c>
+      <c r="F27">
         <v>789</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>13</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>3.62586359375739E-6</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <f t="shared" si="0"/>
         <v>2171.6976295692634</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>1.9025341057565898E-5</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <f t="shared" si="1"/>
         <v>413.88374315492297</v>
       </c>
+      <c r="L27">
+        <v>3.1491517149109631E-4</v>
+      </c>
+      <c r="M27">
+        <v>231</v>
+      </c>
+      <c r="N27">
+        <v>678</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>25.004445909736194</v>
+      </c>
+      <c r="P27">
+        <v>7.4239478544462151E-4</v>
+      </c>
+      <c r="Q27">
+        <v>174</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0.41803827766166302</v>
+      </c>
+      <c r="S27">
+        <v>583</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="4"/>
+        <v>10.606593050069035</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="5"/>
+        <v>1.0255759063175114</v>
+      </c>
+      <c r="W27">
+        <v>3.4983047639851762E-4</v>
+      </c>
+      <c r="X27">
+        <v>224</v>
+      </c>
+      <c r="Y27">
+        <v>702</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="6"/>
+        <v>22.508843291098071</v>
+      </c>
+      <c r="AA27">
+        <v>9.1633600410330474E-4</v>
+      </c>
+      <c r="AB27">
+        <v>160</v>
+      </c>
+      <c r="AC27">
+        <v>587</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="7"/>
+        <v>8.5932227222806965</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="8"/>
+        <v>0.93415606814113161</v>
+      </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1516,13 +5024,80 @@
         <v>147</v>
       </c>
       <c r="E28">
+        <v>0.99071311234176374</v>
+      </c>
+      <c r="F28">
         <v>830</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>13</v>
       </c>
+      <c r="L28">
+        <v>8.7695478420602918E-5</v>
+      </c>
+      <c r="M28">
+        <v>296</v>
+      </c>
+      <c r="N28">
+        <v>734</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>64.191615546132638</v>
+      </c>
+      <c r="P28">
+        <v>4.5191075561145928E-4</v>
+      </c>
+      <c r="Q28">
+        <v>187</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>0.39166620452737916</v>
+      </c>
+      <c r="S28">
+        <v>618</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="4"/>
+        <v>12.45669496910458</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="5"/>
+        <v>1.0954028298769898</v>
+      </c>
+      <c r="W28">
+        <v>2.5894802725311448E-4</v>
+      </c>
+      <c r="X28">
+        <v>224</v>
+      </c>
+      <c r="Y28">
+        <v>718</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="6"/>
+        <v>21.739167104783601</v>
+      </c>
+      <c r="AA28">
+        <v>3.6065316507506972E-4</v>
+      </c>
+      <c r="AB28">
+        <v>202</v>
+      </c>
+      <c r="AC28">
+        <v>620</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="7"/>
+        <v>15.608665002947571</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="8"/>
+        <v>1.1933657597794791</v>
+      </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1536,13 +5111,80 @@
         <v>155</v>
       </c>
       <c r="E29">
+        <v>0.99030799305263295</v>
+      </c>
+      <c r="F29">
         <v>880</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>14</v>
       </c>
+      <c r="L29">
+        <v>3.9714938408550051E-5</v>
+      </c>
+      <c r="M29">
+        <v>327</v>
+      </c>
+      <c r="N29">
+        <v>772</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>100.02965556372587</v>
+      </c>
+      <c r="P29">
+        <v>3.4650064046741908E-4</v>
+      </c>
+      <c r="Q29">
+        <v>183</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>0.39959843297132747</v>
+      </c>
+      <c r="S29">
+        <v>606</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="4"/>
+        <v>11.465120538833153</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="5"/>
+        <v>1.0593786250559187</v>
+      </c>
+      <c r="W29">
+        <v>6.6226419223004753E-5</v>
+      </c>
+      <c r="X29">
+        <v>293</v>
+      </c>
+      <c r="Y29">
+        <v>754</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="6"/>
+        <v>59.986205752188411</v>
+      </c>
+      <c r="AA29">
+        <v>2.2063370939066421E-4</v>
+      </c>
+      <c r="AB29">
+        <v>213</v>
+      </c>
+      <c r="AC29">
+        <v>661</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="7"/>
+        <v>18.005732762746845</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="8"/>
+        <v>1.2554108001500677</v>
+      </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1556,13 +5198,80 @@
         <v>163</v>
       </c>
       <c r="E30">
+        <v>0.98968572917230668</v>
+      </c>
+      <c r="F30">
         <v>920</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>14</v>
       </c>
+      <c r="L30">
+        <v>2.299107446367359E-5</v>
+      </c>
+      <c r="M30">
+        <v>342</v>
+      </c>
+      <c r="N30">
+        <v>828</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>121.573506358515</v>
+      </c>
+      <c r="P30">
+        <v>1.099223626773884E-4</v>
+      </c>
+      <c r="Q30">
+        <v>238</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0.30331453153725907</v>
+      </c>
+      <c r="S30">
+        <v>662</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="4"/>
+        <v>25.427997264777506</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="5"/>
+        <v>1.4053121560425117</v>
+      </c>
+      <c r="W30">
+        <v>7.2110467177280191E-5</v>
+      </c>
+      <c r="X30">
+        <v>266</v>
+      </c>
+      <c r="Y30">
+        <v>773</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="6"/>
+        <v>38.761439870121457</v>
+      </c>
+      <c r="AA30">
+        <v>1.946715327098369E-4</v>
+      </c>
+      <c r="AB30">
+        <v>200</v>
+      </c>
+      <c r="AC30">
+        <v>636</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="7"/>
+        <v>14.358059951501447</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="8"/>
+        <v>1.1570957623799967</v>
+      </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1576,13 +5285,80 @@
         <v>168</v>
       </c>
       <c r="E31">
+        <v>0.98943665439371498</v>
+      </c>
+      <c r="F31">
         <v>969</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>15</v>
       </c>
+      <c r="L31">
+        <v>7.4411199134428309E-6</v>
+      </c>
+      <c r="M31">
+        <v>394</v>
+      </c>
+      <c r="N31">
+        <v>889</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>260.72783535780854</v>
+      </c>
+      <c r="P31">
+        <v>9.745540794700576E-5</v>
+      </c>
+      <c r="Q31">
+        <v>223</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>0.32699943802956782</v>
+      </c>
+      <c r="S31">
+        <v>679</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="4"/>
+        <v>19.907639078631973</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="5"/>
+        <v>1.2990197584744663</v>
+      </c>
+      <c r="W31">
+        <v>3.9503283331052153E-5</v>
+      </c>
+      <c r="X31">
+        <v>283</v>
+      </c>
+      <c r="Y31">
+        <v>841</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="6"/>
+        <v>49.112552782284361</v>
+      </c>
+      <c r="AA31">
+        <v>1.0665599676770109E-4</v>
+      </c>
+      <c r="AB31">
+        <v>217</v>
+      </c>
+      <c r="AC31">
+        <v>681</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="7"/>
+        <v>18.190323530475506</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="8"/>
+        <v>1.259840423431307</v>
+      </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1596,13 +5372,80 @@
         <v>184</v>
       </c>
       <c r="E32">
+        <v>0.98832617155143521</v>
+      </c>
+      <c r="F32">
         <v>1010</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>15</v>
       </c>
+      <c r="L32">
+        <v>1.5862113157979719E-5</v>
+      </c>
+      <c r="M32">
+        <v>321</v>
+      </c>
+      <c r="N32">
+        <v>881</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>82.721310471759622</v>
+      </c>
+      <c r="P32">
+        <v>4.4795460358943681E-5</v>
+      </c>
+      <c r="Q32">
+        <v>252</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>0.28275894195540657</v>
+      </c>
+      <c r="S32">
+        <v>755</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="4"/>
+        <v>29.291691094708181</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="5"/>
+        <v>1.4667444454917471</v>
+      </c>
+      <c r="W32">
+        <v>1.3241835050585621E-5</v>
+      </c>
+      <c r="X32">
+        <v>333</v>
+      </c>
+      <c r="Y32">
+        <v>903</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="6"/>
+        <v>99.09010210948027</v>
+      </c>
+      <c r="AA32">
+        <v>3.5214854466759648E-5</v>
+      </c>
+      <c r="AB32">
+        <v>268</v>
+      </c>
+      <c r="AC32">
+        <v>764</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="7"/>
+        <v>37.260832314896746</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="8"/>
+        <v>1.5712525517338594</v>
+      </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1616,13 +5459,80 @@
         <v>191</v>
       </c>
       <c r="E33">
+        <v>0.98791854371342092</v>
+      </c>
+      <c r="F33">
         <v>1060</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>16</v>
       </c>
+      <c r="L33">
+        <v>1.3803585866402041E-6</v>
+      </c>
+      <c r="M33">
+        <v>459</v>
+      </c>
+      <c r="N33">
+        <v>995</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>641.74652278132703</v>
+      </c>
+      <c r="P33">
+        <v>3.7207252013360522E-5</v>
+      </c>
+      <c r="Q33">
+        <v>240</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>0.30028896908517488</v>
+      </c>
+      <c r="S33">
+        <v>785</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="4"/>
+        <v>23.808270571812375</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="5"/>
+        <v>1.376727849483113</v>
+      </c>
+      <c r="W33">
+        <v>3.506733193478684E-6</v>
+      </c>
+      <c r="X33">
+        <v>397</v>
+      </c>
+      <c r="Y33">
+        <v>988</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="6"/>
+        <v>252.61126931899352</v>
+      </c>
+      <c r="AA33">
+        <v>2.9251957114737981E-5</v>
+      </c>
+      <c r="AB33">
+        <v>256</v>
+      </c>
+      <c r="AC33">
+        <v>777</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="7"/>
+        <v>30.283113013364364</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="8"/>
+        <v>1.4812005172955021</v>
+      </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1636,13 +5546,80 @@
         <v>194</v>
       </c>
       <c r="E34">
+        <v>0.98763139202014849</v>
+      </c>
+      <c r="F34">
         <v>984</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>15</v>
       </c>
+      <c r="L34">
+        <v>2.478220686351216E-6</v>
+      </c>
+      <c r="M34">
+        <v>396</v>
+      </c>
+      <c r="N34">
+        <v>923</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>243.5750056906673</v>
+      </c>
+      <c r="P34">
+        <v>6.6936589433679348E-6</v>
+      </c>
+      <c r="Q34">
+        <v>330</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>0.19125669472892198</v>
+      </c>
+      <c r="S34">
+        <v>745</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="4"/>
+        <v>90.179769075149096</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="5"/>
+        <v>1.9551091188667939</v>
+      </c>
+      <c r="W34">
+        <v>3.105184351916214E-6</v>
+      </c>
+      <c r="X34">
+        <v>381</v>
+      </c>
+      <c r="Y34">
+        <v>927</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="6"/>
+        <v>194.39509844503249</v>
+      </c>
+      <c r="AA34">
+        <v>2.097593135202291E-5</v>
+      </c>
+      <c r="AB34">
+        <v>254</v>
+      </c>
+      <c r="AC34">
+        <v>839</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="7"/>
+        <v>28.77739289142519</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="8"/>
+        <v>1.4590514461622666</v>
+      </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1656,13 +5633,80 @@
         <v>206</v>
       </c>
       <c r="E35">
+        <v>0.98691518446346094</v>
+      </c>
+      <c r="F35">
         <v>1028</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>16</v>
       </c>
+      <c r="L35">
+        <v>2.728373911156873E-7</v>
+      </c>
+      <c r="M35">
+        <v>517</v>
+      </c>
+      <c r="N35">
+        <v>1070</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>1444.5064965958381</v>
+      </c>
+      <c r="P35">
+        <v>2.3829749900449889E-6</v>
+      </c>
+      <c r="Q35">
+        <v>373</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>0.15417328217978171</v>
+      </c>
+      <c r="S35">
+        <v>784</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="4"/>
+        <v>165.38796488729798</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="5"/>
+        <v>2.2185039032019889</v>
+      </c>
+      <c r="W35">
+        <v>3.7981656322127602E-7</v>
+      </c>
+      <c r="X35">
+        <v>495</v>
+      </c>
+      <c r="Y35">
+        <v>1071</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="6"/>
+        <v>1037.6466487883615</v>
+      </c>
+      <c r="AA35">
+        <v>5.2857556338740488E-6</v>
+      </c>
+      <c r="AB35">
+        <v>320</v>
+      </c>
+      <c r="AC35">
+        <v>831</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="7"/>
+        <v>74.561786673443677</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="8"/>
+        <v>1.8725163061742618</v>
+      </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1676,13 +5720,80 @@
         <v>217</v>
       </c>
       <c r="E36">
+        <v>0.98609028169097446</v>
+      </c>
+      <c r="F36">
         <v>1076</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>16</v>
       </c>
+      <c r="L36">
+        <v>7.0033695040095298E-7</v>
+      </c>
+      <c r="M36">
+        <v>429</v>
+      </c>
+      <c r="N36">
+        <v>1016</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>367.13335932444875</v>
+      </c>
+      <c r="P36">
+        <v>2.9700209593469272E-6</v>
+      </c>
+      <c r="Q36">
+        <v>333</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>0.18840216465300599</v>
+      </c>
+      <c r="S36">
+        <v>834</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="4"/>
+        <v>86.570788819038754</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="5"/>
+        <v>1.93737137475646</v>
+      </c>
+      <c r="W36">
+        <v>1.603247342540473E-7</v>
+      </c>
+      <c r="X36">
+        <v>527</v>
+      </c>
+      <c r="Y36">
+        <v>1125</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="6"/>
+        <v>1603.7267016598903</v>
+      </c>
+      <c r="AA36">
+        <v>3.3000384550059288E-6</v>
+      </c>
+      <c r="AB36">
+        <v>326</v>
+      </c>
+      <c r="AC36">
+        <v>818</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="7"/>
+        <v>77.913351848889221</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="8"/>
+        <v>1.8916118881914024</v>
+      </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1696,13 +5807,80 @@
         <v>226</v>
       </c>
       <c r="E37">
+        <v>0.98564448643762215</v>
+      </c>
+      <c r="F37">
         <v>1122</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>17</v>
       </c>
+      <c r="L37">
+        <v>4.2675499473628293E-8</v>
+      </c>
+      <c r="M37">
+        <v>588</v>
+      </c>
+      <c r="N37">
+        <v>1171</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>3886.1455230897386</v>
+      </c>
+      <c r="P37">
+        <v>1.8358276123759021E-6</v>
+      </c>
+      <c r="Q37">
+        <v>338</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>0.18373897616330628</v>
+      </c>
+      <c r="S37">
+        <v>816</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="4"/>
+        <v>90.337022990098276</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="5"/>
+        <v>1.9558657745110068</v>
+      </c>
+      <c r="W37">
+        <v>5.3490468980385078E-8</v>
+      </c>
+      <c r="X37">
+        <v>573</v>
+      </c>
+      <c r="Y37">
+        <v>1122</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="6"/>
+        <v>3100.4252605426527</v>
+      </c>
+      <c r="AA37">
+        <v>1.318377790712864E-6</v>
+      </c>
+      <c r="AB37">
+        <v>360</v>
+      </c>
+      <c r="AC37">
+        <v>858</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="7"/>
+        <v>125.79338213471081</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="8"/>
+        <v>2.0996577939075203</v>
+      </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1716,13 +5894,80 @@
         <v>238</v>
       </c>
       <c r="E38">
+        <v>0.9847035931308955</v>
+      </c>
+      <c r="F38">
         <v>1171</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>17</v>
       </c>
+      <c r="L38">
+        <v>1.409321153084517E-8</v>
+      </c>
+      <c r="M38">
+        <v>635</v>
+      </c>
+      <c r="N38">
+        <v>1200</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>7465.7259500707496</v>
+      </c>
+      <c r="P38">
+        <v>4.0980096959595978E-7</v>
+      </c>
+      <c r="Q38">
+        <v>411</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>0.12743425563174862</v>
+      </c>
+      <c r="S38">
+        <v>949</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="4"/>
+        <v>256.74916081678401</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="5"/>
+        <v>2.409509032782517</v>
+      </c>
+      <c r="W38">
+        <v>6.5341077350105654E-8</v>
+      </c>
+      <c r="X38">
+        <v>533</v>
+      </c>
+      <c r="Y38">
+        <v>1180</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="6"/>
+        <v>1610.2589567341588</v>
+      </c>
+      <c r="AA38">
+        <v>7.4819014781885813E-7</v>
+      </c>
+      <c r="AB38">
+        <v>371</v>
+      </c>
+      <c r="AC38">
+        <v>873</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="7"/>
+        <v>140.6274265337434</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="8"/>
+        <v>2.1480700292945341</v>
+      </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1736,13 +5981,80 @@
         <v>243</v>
       </c>
       <c r="E39">
+        <v>0.98460971471120107</v>
+      </c>
+      <c r="F39">
         <v>1217</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>18</v>
       </c>
+      <c r="L39">
+        <v>1.0967420133133139E-8</v>
+      </c>
+      <c r="M39">
+        <v>624</v>
+      </c>
+      <c r="N39">
+        <v>1222</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>6204.1861888947515</v>
+      </c>
+      <c r="P39">
+        <v>4.119759375536274E-7</v>
+      </c>
+      <c r="Q39">
+        <v>383</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>0.14663577052834847</v>
+      </c>
+      <c r="S39">
+        <v>906</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="4"/>
+        <v>165.16478346246498</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="5"/>
+        <v>2.2179174523164304</v>
+      </c>
+      <c r="W39">
+        <v>2.9597592383318911E-8</v>
+      </c>
+      <c r="X39">
+        <v>558</v>
+      </c>
+      <c r="Y39">
+        <v>1175</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="6"/>
+        <v>2298.9679578174118</v>
+      </c>
+      <c r="AA39">
+        <v>5.4794900584454253E-7</v>
+      </c>
+      <c r="AB39">
+        <v>364</v>
+      </c>
+      <c r="AC39">
+        <v>981</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="7"/>
+        <v>124.17928637887785</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="8"/>
+        <v>2.0940491597569766</v>
+      </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1756,13 +6068,80 @@
         <v>252</v>
       </c>
       <c r="E40">
+        <v>0.98391814784736054</v>
+      </c>
+      <c r="F40">
         <v>1266</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>18</v>
       </c>
+      <c r="L40">
+        <v>1.170785810109194E-8</v>
+      </c>
+      <c r="M40">
+        <v>593</v>
+      </c>
+      <c r="N40">
+        <v>1196</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>3716.3219181414602</v>
+      </c>
+      <c r="P40">
+        <v>1.152994034999871E-7</v>
+      </c>
+      <c r="Q40">
+        <v>441</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>0.1096424190539729</v>
+      </c>
+      <c r="S40">
+        <v>949</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="4"/>
+        <v>377.36682371980271</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="5"/>
+        <v>2.5767637164204484</v>
+      </c>
+      <c r="W40">
+        <v>3.8454279510907913E-9</v>
+      </c>
+      <c r="X40">
+        <v>667</v>
+      </c>
+      <c r="Y40">
+        <v>1291</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="6"/>
+        <v>11314.779584736718</v>
+      </c>
+      <c r="AA40">
+        <v>1.8370180966875441E-7</v>
+      </c>
+      <c r="AB40">
+        <v>410</v>
+      </c>
+      <c r="AC40">
+        <v>1006</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="7"/>
+        <v>236.85215596968951</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="8"/>
+        <v>2.374477342289552</v>
+      </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1776,13 +6155,80 @@
         <v>261</v>
       </c>
       <c r="E41">
+        <v>0.98344300423316644</v>
+      </c>
+      <c r="F41">
         <v>1318</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>19</v>
       </c>
+      <c r="L41">
+        <v>5.1495001541778631E-10</v>
+      </c>
+      <c r="M41">
+        <v>773</v>
+      </c>
+      <c r="N41">
+        <v>1382</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>53662.296338905879</v>
+      </c>
+      <c r="P41">
+        <v>9.9642715279229215E-8</v>
+      </c>
+      <c r="Q41">
+        <v>423</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>0.11999500148501127</v>
+      </c>
+      <c r="S41">
+        <v>1038</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="4"/>
+        <v>277.32484256010287</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="5"/>
+        <v>2.4429887751080446</v>
+      </c>
+      <c r="W41">
+        <v>1.715465714126813E-9</v>
+      </c>
+      <c r="X41">
+        <v>693</v>
+      </c>
+      <c r="Y41">
+        <v>1322</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="6"/>
+        <v>16108.395579995045</v>
+      </c>
+      <c r="AA41">
+        <v>1.4085458696109769E-7</v>
+      </c>
+      <c r="AB41">
+        <v>400</v>
+      </c>
+      <c r="AC41">
+        <v>995</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="7"/>
+        <v>196.18388668240817</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="8"/>
+        <v>2.2926633342758853</v>
+      </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1796,13 +6242,80 @@
         <v>269</v>
       </c>
       <c r="E42">
+        <v>0.9828065580313875</v>
+      </c>
+      <c r="F42">
         <v>1364</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>19</v>
       </c>
+      <c r="L42">
+        <v>7.8857108945761125E-10</v>
+      </c>
+      <c r="M42">
+        <v>718</v>
+      </c>
+      <c r="N42">
+        <v>1367</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>22405.046545121299</v>
+      </c>
+      <c r="P42">
+        <v>2.961577483404098E-8</v>
+      </c>
+      <c r="Q42">
+        <v>477</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="3"/>
+        <v>9.1539706516458583E-2</v>
+      </c>
+      <c r="S42">
+        <v>1081</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="4"/>
+        <v>596.57301091872364</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="5"/>
+        <v>2.7756636019020062</v>
+      </c>
+      <c r="W42">
+        <v>1.355061171242043E-9</v>
+      </c>
+      <c r="X42">
+        <v>682</v>
+      </c>
+      <c r="Y42">
+        <v>1361</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="6"/>
+        <v>13038.505078881721</v>
+      </c>
+      <c r="AA42">
+        <v>4.6495034273459582E-8</v>
+      </c>
+      <c r="AB42">
+        <v>447</v>
+      </c>
+      <c r="AC42">
+        <v>1093</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="7"/>
+        <v>379.99696611730576</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="8"/>
+        <v>2.5797801292384612</v>
+      </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1816,13 +6329,80 @@
         <v>285</v>
       </c>
       <c r="E43">
+        <v>0.98192898741624512</v>
+      </c>
+      <c r="F43">
         <v>1413</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>20</v>
       </c>
+      <c r="L43">
+        <v>1.51347306313685E-9</v>
+      </c>
+      <c r="M43">
+        <v>647</v>
+      </c>
+      <c r="N43">
+        <v>1317</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>7260.1346559782878</v>
+      </c>
+      <c r="P43">
+        <v>2.802560041225484E-8</v>
+      </c>
+      <c r="Q43">
+        <v>453</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="3"/>
+        <v>0.10324180238648423</v>
+      </c>
+      <c r="S43">
+        <v>1089</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="4"/>
+        <v>392.07075227422052</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="5"/>
+        <v>2.5933644459735565</v>
+      </c>
+      <c r="W43">
+        <v>1.3845486860507721E-10</v>
+      </c>
+      <c r="X43">
+        <v>806</v>
+      </c>
+      <c r="Y43">
+        <v>1424</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="6"/>
+        <v>79361.732435073965</v>
+      </c>
+      <c r="AA43">
+        <v>2.3044761153734851E-8</v>
+      </c>
+      <c r="AB43">
+        <v>466</v>
+      </c>
+      <c r="AC43">
+        <v>1119</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="7"/>
+        <v>476.81198183252326</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="8"/>
+        <v>2.6783471602774109</v>
+      </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1836,13 +6416,80 @@
         <v>289</v>
       </c>
       <c r="E44">
+        <v>0.98160124556310424</v>
+      </c>
+      <c r="F44">
         <v>1459</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>20</v>
       </c>
+      <c r="L44">
+        <v>5.9927318097115989E-11</v>
+      </c>
+      <c r="M44">
+        <v>835</v>
+      </c>
+      <c r="N44">
+        <v>1476</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>118632.75615373265</v>
+      </c>
+      <c r="P44">
+        <v>7.5004725605900429E-9</v>
+      </c>
+      <c r="Q44">
+        <v>514</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="3"/>
+        <v>7.6043746131408019E-2</v>
+      </c>
+      <c r="S44">
+        <v>1072</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="4"/>
+        <v>947.85266625961196</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="5"/>
+        <v>2.9767408360688838</v>
+      </c>
+      <c r="W44">
+        <v>1.641236383351089E-10</v>
+      </c>
+      <c r="X44">
+        <v>768</v>
+      </c>
+      <c r="Y44">
+        <v>1477</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="6"/>
+        <v>43316.995570415151</v>
+      </c>
+      <c r="AA44">
+        <v>2.2479088701003581E-8</v>
+      </c>
+      <c r="AB44">
+        <v>441</v>
+      </c>
+      <c r="AC44">
+        <v>1087</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="7"/>
+        <v>316.26472982621107</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="8"/>
+        <v>2.5000507616408565</v>
+      </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1856,13 +6503,80 @@
         <v>306</v>
       </c>
       <c r="E45">
+        <v>0.98052605008140126</v>
+      </c>
+      <c r="F45">
         <v>1508</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>21</v>
       </c>
+      <c r="L45">
+        <v>3.3971662033940407E-10</v>
+      </c>
+      <c r="M45">
+        <v>692</v>
+      </c>
+      <c r="N45">
+        <v>1371</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>12849.945895500514</v>
+      </c>
+      <c r="P45">
+        <v>4.5854170501793757E-9</v>
+      </c>
+      <c r="Q45">
+        <v>519</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="3"/>
+        <v>7.416156859737208E-2</v>
+      </c>
+      <c r="S45">
+        <v>1205</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="4"/>
+        <v>952.00505066226526</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="5"/>
+        <v>2.9786392524484797</v>
+      </c>
+      <c r="W45">
+        <v>2.296964079549431E-10</v>
+      </c>
+      <c r="X45">
+        <v>718</v>
+      </c>
+      <c r="Y45">
+        <v>1430</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="6"/>
+        <v>19004.825674156516</v>
+      </c>
+      <c r="AA45">
+        <v>9.5897821857082764E-9</v>
+      </c>
+      <c r="AB45">
+        <v>470</v>
+      </c>
+      <c r="AC45">
+        <v>1053</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="7"/>
+        <v>455.20743919182343</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="8"/>
+        <v>2.6582093508684714</v>
+      </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1876,13 +6590,80 @@
         <v>318</v>
       </c>
       <c r="E46">
+        <v>0.97959246847247916</v>
+      </c>
+      <c r="F46">
         <v>1557</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>21</v>
       </c>
+      <c r="L46">
+        <v>6.8249329985673475E-11</v>
+      </c>
+      <c r="M46">
+        <v>772</v>
+      </c>
+      <c r="N46">
+        <v>1520</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>40061.972918719679</v>
+      </c>
+      <c r="P46">
+        <v>7.0240561449092297E-9</v>
+      </c>
+      <c r="Q46">
+        <v>464</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="3"/>
+        <v>9.7703352516643791E-2</v>
+      </c>
+      <c r="S46">
+        <v>1143</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="4"/>
+        <v>389.26266436359009</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="5"/>
+        <v>2.5902427509094008</v>
+      </c>
+      <c r="W46">
+        <v>3.6300784303360309E-11</v>
+      </c>
+      <c r="X46">
+        <v>814</v>
+      </c>
+      <c r="Y46">
+        <v>1484</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="6"/>
+        <v>75320.764057257926</v>
+      </c>
+      <c r="AA46">
+        <v>3.7913041847300069E-9</v>
+      </c>
+      <c r="AB46">
+        <v>505</v>
+      </c>
+      <c r="AC46">
+        <v>1159</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="7"/>
+        <v>721.17737759454587</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="8"/>
+        <v>2.8580420950055085</v>
+      </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1896,58 +6677,138 @@
         <v>316</v>
       </c>
       <c r="E47">
+        <v>0.97958968767118959</v>
+      </c>
+      <c r="F47">
         <v>1483</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>22</v>
       </c>
+      <c r="L47">
+        <v>9.6818988825035209E-12</v>
+      </c>
+      <c r="M47">
+        <v>874</v>
+      </c>
+      <c r="N47">
+        <v>1525</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="2"/>
+        <v>182515.00648871897</v>
+      </c>
+      <c r="P47">
+        <v>2.2162897032089461E-10</v>
+      </c>
+      <c r="Q47">
+        <v>666</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="3"/>
+        <v>3.5495375645938382E-2</v>
+      </c>
+      <c r="S47">
+        <v>1173</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="4"/>
+        <v>7973.1987871652991</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="5"/>
+        <v>3.9016325920242165</v>
+      </c>
+      <c r="W47">
+        <v>4.7713103983702737E-12</v>
+      </c>
+      <c r="X47">
+        <v>921</v>
+      </c>
+      <c r="Y47">
+        <v>1629</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="6"/>
+        <v>370357.76124874054</v>
+      </c>
+      <c r="AA47">
+        <v>1.1074897766354831E-9</v>
+      </c>
+      <c r="AB47">
+        <v>559</v>
+      </c>
+      <c r="AC47">
+        <v>1189</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="7"/>
+        <v>1595.5829793134678</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="8"/>
+        <v>3.2029193948791748</v>
+      </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" t="s">
+    <row r="48" spans="1:31">
+      <c r="L48" t="s">
+        <v>73</v>
+      </c>
+      <c r="P48" t="s">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>52</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>53</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F49" t="s">
         <v>54</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G49" t="s">
         <v>55</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H49" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J49" t="s">
         <v>58</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L49" t="s">
         <v>58</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M49" t="s">
         <v>60</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N49" t="s">
         <v>61</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O49" t="s">
         <v>62</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P49" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/yq_test/qft_cz/Rb2Re4/total_qft.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/total_qft.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/qft_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="11_32C184B3DD0ADB02D982D7F0505ED87656CD8453" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFD8B227-D86D-0548-A696-1A1C3373B7E3}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="11_32C184B3DD0ADB02D982D7F0505ED87656CD8453" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8D3B126-58C2-9844-B589-907C73759BA1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>file name</t>
   </si>
@@ -442,7 +442,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Tetris(MCTS)</c:v>
+            <c:v>Tetris</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -454,19 +454,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -614,7 +602,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet!$U$2:$U$46</c:f>
+              <c:f>Sheet!$V$2:$V$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
@@ -767,7 +755,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Tetris with same mapping(MCTS)</c:v>
+            <c:v>Enola</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -779,26 +767,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet!$B$2:$B$46</c:f>
+              <c:f>(Sheet!$B$2:$B$19,Sheet!$B$22,Sheet!$B$25:$B$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -854,229 +830,91 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet!$AE$2:$AE$46</c:f>
+              <c:f>(Sheet!$P$2:$P$19,Sheet!$P$22,Sheet!$P$25:$P$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>6.0222168157300664E-6</c:v>
+                  <c:v>1.4567193399102148E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8679436670243254E-2</c:v>
+                  <c:v>2.4436147035124228E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5229856629561117E-2</c:v>
+                  <c:v>3.6524129455330484E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4899061011292349E-2</c:v>
+                  <c:v>6.1045461122666164E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5765519750758656E-2</c:v>
+                  <c:v>8.246965381293099E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11990597277828517</c:v>
+                  <c:v>0.11298169407925475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11296356809749739</c:v>
+                  <c:v>0.14002691206319576</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16251490667634444</c:v>
+                  <c:v>0.18144912939702623</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20620887223638443</c:v>
+                  <c:v>0.23358370110598614</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23516503964398641</c:v>
+                  <c:v>0.30096189493544395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31789822552344399</c:v>
+                  <c:v>0.35234642602457927</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29981471103662327</c:v>
+                  <c:v>0.60048265893421593</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43545839006951775</c:v>
+                  <c:v>0.52918345102674358</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.49590754740227994</c:v>
+                  <c:v>0.60640921283991767</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6444818946866997</c:v>
+                  <c:v>0.69702268937608935</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7210332746204966</c:v>
+                  <c:v>0.81384487063248612</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.67643761551770776</c:v>
+                  <c:v>0.95038953623069311</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.70164900276338471</c:v>
+                  <c:v>1.0562360445251724</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88725211737653442</c:v>
+                  <c:v>1.5507271427273213</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0353295675585936</c:v>
+                  <c:v>2.1563076906915191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.002614502151314</c:v>
+                  <c:v>2.3830131590909156</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.67801284587886046</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.84982009186748164</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.93747688595013734</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.80184360395409904</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.93415606814113161</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.1933657597794791</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.2554108001500677</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.1570957623799967</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.259840423431307</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.5712525517338594</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.4812005172955021</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.4590514461622666</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.8725163061742618</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.8916118881914024</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.0996577939075203</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.1480700292945341</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.0940491597569766</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.374477342289552</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.2926633342758853</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.5797801292384612</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.6783471602774109</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.5000507616408565</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.6582093508684714</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.8580420950055085</c:v>
+                  <c:v>2.6168783681819452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,7 +922,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A8A3-0045-B312-24924B183306}"/>
+              <c16:uniqueId val="{00000000-E7F8-2943-BBD5-21DCDB03BA52}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1103,6 +941,8 @@
         <c:axId val="963234559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1221,6 +1061,7 @@
         <c:axId val="1288805679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1343,7 +1184,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1970,16 +1811,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2292,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE49"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2307,10 +2148,10 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" style="3"/>
     <col min="12" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2357,52 +2198,55 @@
         <v>71</v>
       </c>
       <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>69</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>78</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>70</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>71</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>75</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>68</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2452,58 +2296,62 @@
         <v>1.0151685848370693</v>
       </c>
       <c r="P2">
+        <f>LOG(K2)</f>
+        <v>1.4567193399102148E-2</v>
+      </c>
+      <c r="Q2">
         <v>0.86468098268877081</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <f>POWER(0.995,Q2)</f>
+      <c r="S2">
+        <f>POWER(0.995,R2)</f>
         <v>0.995</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>29</v>
       </c>
-      <c r="T2">
-        <f>C2/P2</f>
+      <c r="U2">
+        <f>C2/Q2</f>
         <v>1.0151685848370693</v>
       </c>
-      <c r="U2">
-        <f>LOG(T2)</f>
+      <c r="V2">
+        <f>LOG(U2)</f>
         <v>6.5381697219813956E-3</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.87778479749810145</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>26</v>
       </c>
-      <c r="Z2">
-        <f>C2/W2</f>
+      <c r="AA2">
+        <f>C2/X2</f>
         <v>1.0000138667628093</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>0.87778479749810145</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>0</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>26</v>
       </c>
-      <c r="AD2">
-        <f>C2/AA2</f>
+      <c r="AE2">
+        <f>C2/AB2</f>
         <v>1.0000138667628093</v>
       </c>
-      <c r="AE2">
-        <f>LOG(AD2)</f>
+      <c r="AF2">
+        <f>LOG(AE2)</f>
         <v>6.0222168157300664E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2553,58 +2401,62 @@
         <v>1.0439631505426508</v>
       </c>
       <c r="P3">
+        <f t="shared" ref="P3:P27" si="3">LOG(K3)</f>
+        <v>2.4436147035124228E-2</v>
+      </c>
+      <c r="Q3">
         <v>0.77438165469602305</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>4</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R47" si="3">POWER(0.995,Q3)</f>
+      <c r="S3">
+        <f t="shared" ref="S3:S47" si="4">POWER(0.995,R3)</f>
         <v>0.98014950062500006</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>48</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T47" si="4">C3/P3</f>
+      <c r="U3">
+        <f t="shared" ref="U3:U47" si="5">C3/Q3</f>
         <v>1.0597800831713164</v>
       </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U47" si="5">LOG(T3)</f>
+      <c r="V3">
+        <f t="shared" ref="V3:V47" si="6">LOG(U3)</f>
         <v>2.5215753402435259E-2</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.81012302787087764</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>40</v>
       </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z47" si="6">C3/W3</f>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA47" si="7">C3/X3</f>
         <v>1.0130242274151193</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.78612457438287708</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>3</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>37</v>
       </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD47" si="7">C3/AA3</f>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE47" si="8">C3/AB3</f>
         <v>1.0439493703200133</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE47" si="8">LOG(AD3)</f>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF47" si="9">LOG(AE3)</f>
         <v>1.8679436670243254E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2654,58 +2506,62 @@
         <v>1.1255322035947748</v>
       </c>
       <c r="P4">
+        <f t="shared" si="3"/>
+        <v>3.6524129455330484E-2</v>
+      </c>
+      <c r="Q4">
         <v>0.70757094008172938</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>6</v>
       </c>
-      <c r="R4">
-        <f t="shared" si="3"/>
+      <c r="S4">
+        <f t="shared" si="4"/>
         <v>0.97037250935626573</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>51</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="4"/>
-        <v>1.0921732763543521</v>
       </c>
       <c r="U4">
         <f t="shared" si="5"/>
+        <v>1.0921732763543521</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="6"/>
         <v>3.8291545873001168E-2</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.72917396896847186</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>4</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>51</v>
       </c>
-      <c r="Z4">
-        <f t="shared" si="6"/>
+      <c r="AA4">
+        <f t="shared" si="7"/>
         <v>1.0598157706801041</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>0.72917484397775956</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>4</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>50</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="7"/>
-        <v>1.0598144989019425</v>
       </c>
       <c r="AE4">
         <f t="shared" si="8"/>
+        <v>1.0598144989019425</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="9"/>
         <v>2.5229856629561117E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2755,58 +2611,62 @@
         <v>1.1765673634045686</v>
       </c>
       <c r="P5">
+        <f t="shared" si="3"/>
+        <v>6.1045461122666164E-2</v>
+      </c>
+      <c r="Q5">
         <v>0.61183047771356813</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>10</v>
       </c>
-      <c r="R5">
-        <f t="shared" si="3"/>
+      <c r="S5">
+        <f t="shared" si="4"/>
         <v>0.95111013046577197</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>70</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="4"/>
-        <v>1.15899489482525</v>
       </c>
       <c r="U5">
         <f t="shared" si="5"/>
+        <v>1.15899489482525</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="6"/>
         <v>6.4081522974720959E-2</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0.64976148462922823</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>6</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>69</v>
       </c>
-      <c r="Z5">
-        <f t="shared" si="6"/>
+      <c r="AA5">
+        <f t="shared" si="7"/>
         <v>1.0913364625992816</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.66959710772930725</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>4</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>72</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="7"/>
-        <v>1.0590075613874741</v>
       </c>
       <c r="AE5">
         <f t="shared" si="8"/>
+        <v>1.0590075613874741</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="9"/>
         <v>2.4899061011292349E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2856,58 +2716,62 @@
         <v>1.2443894491051708</v>
       </c>
       <c r="P6">
+        <f t="shared" si="3"/>
+        <v>8.246965381293099E-2</v>
+      </c>
+      <c r="Q6">
         <v>0.55623957160452719</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>11</v>
       </c>
-      <c r="R6">
-        <f t="shared" si="3"/>
+      <c r="S6">
+        <f t="shared" si="4"/>
         <v>0.94635457981344306</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>87</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="4"/>
-        <v>1.1717347059521619</v>
       </c>
       <c r="U6">
         <f t="shared" si="5"/>
+        <v>1.1717347059521619</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
         <v>6.8829293607711867E-2</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.5562355666940294</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>11</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>93</v>
       </c>
-      <c r="Z6">
-        <f t="shared" si="6"/>
+      <c r="AA6">
+        <f t="shared" si="7"/>
         <v>1.1717431424724158</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.57322570321661837</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>9</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>82</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="7"/>
-        <v>1.1370132344304338</v>
       </c>
       <c r="AE6">
         <f t="shared" si="8"/>
+        <v>1.1370132344304338</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="9"/>
         <v>5.5765519750758656E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2957,58 +2821,62 @@
         <v>1.578653725148575</v>
       </c>
       <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0.11298169407925475</v>
+      </c>
+      <c r="Q7">
         <v>0.41795791056168169</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>23</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="3"/>
+      <c r="S7">
+        <f t="shared" si="4"/>
         <v>0.89110905578020905</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>101</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="4"/>
-        <v>1.3996546683025466</v>
       </c>
       <c r="U7">
         <f t="shared" si="5"/>
+        <v>1.3996546683025466</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="6"/>
         <v>0.146020896999251</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.45059022255490799</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>18</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>105</v>
       </c>
-      <c r="Z7">
-        <f t="shared" si="6"/>
+      <c r="AA7">
+        <f t="shared" si="7"/>
         <v>1.2982899126275416</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>0.44386149707130768</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>19</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>109</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="7"/>
-        <v>1.3179713593802764</v>
       </c>
       <c r="AE7">
         <f t="shared" si="8"/>
+        <v>1.3179713593802764</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="9"/>
         <v>0.11990597277828517</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3058,58 +2926,62 @@
         <v>1.9467603830542011</v>
       </c>
       <c r="P8">
+        <f t="shared" si="3"/>
+        <v>0.14002691206319576</v>
+      </c>
+      <c r="Q8">
         <v>0.32043326026404961</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>34</v>
       </c>
-      <c r="R8">
-        <f t="shared" si="3"/>
+      <c r="S8">
+        <f t="shared" si="4"/>
         <v>0.84330513605083379</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>124</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="4"/>
-        <v>1.6498856274552267</v>
       </c>
       <c r="U8">
         <f t="shared" si="5"/>
+        <v>1.6498856274552267</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="6"/>
         <v>0.21745383931288614</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.37806188477211511</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>23</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>136</v>
       </c>
-      <c r="Z8">
-        <f t="shared" si="6"/>
+      <c r="AA8">
+        <f t="shared" si="7"/>
         <v>1.3983907184585602</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>0.40759407267735281</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>18</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>123</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="7"/>
-        <v>1.2970704583497994</v>
       </c>
       <c r="AE8">
         <f t="shared" si="8"/>
+        <v>1.2970704583497994</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="9"/>
         <v>0.11296356809749739</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3159,58 +3031,62 @@
         <v>1.9937049062071648</v>
       </c>
       <c r="P9">
+        <f t="shared" si="3"/>
+        <v>0.18144912939702623</v>
+      </c>
+      <c r="Q9">
         <v>0.26617872213713478</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>38</v>
       </c>
-      <c r="R9">
-        <f t="shared" si="3"/>
+      <c r="S9">
+        <f t="shared" si="4"/>
         <v>0.82656510797472249</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>146</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="4"/>
-        <v>1.7413073363096974</v>
       </c>
       <c r="U9">
         <f t="shared" si="5"/>
+        <v>1.7413073363096974</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="6"/>
         <v>0.24087542975245219</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.26220216073780422</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>39</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>153</v>
       </c>
-      <c r="Z9">
-        <f t="shared" si="6"/>
+      <c r="AA9">
+        <f t="shared" si="7"/>
         <v>1.7677160261483158</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0.31881141206404962</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>26</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>153</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="7"/>
-        <v>1.4538342860004512</v>
       </c>
       <c r="AE9">
         <f t="shared" si="8"/>
+        <v>1.4538342860004512</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="9"/>
         <v>0.16251490667634444</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3260,58 +3136,62 @@
         <v>2.1075366486873648</v>
       </c>
       <c r="P10">
+        <f t="shared" si="3"/>
+        <v>0.23358370110598614</v>
+      </c>
+      <c r="Q10">
         <v>0.1970340444262563</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>50</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="3"/>
+      <c r="S10">
+        <f t="shared" si="4"/>
         <v>0.77831255706864233</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>168</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="4"/>
-        <v>2.0760290841715174</v>
       </c>
       <c r="U10">
         <f t="shared" si="5"/>
+        <v>2.0760290841715174</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="6"/>
         <v>0.31723343347638294</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.2000150113119307</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>49</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>178</v>
       </c>
-      <c r="Z10">
-        <f t="shared" si="6"/>
+      <c r="AA10">
+        <f t="shared" si="7"/>
         <v>2.0450885366945037</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>0.25442854435403089</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>33</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>163</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="7"/>
-        <v>1.6077142910178757</v>
       </c>
       <c r="AE10">
         <f t="shared" si="8"/>
+        <v>1.6077142910178757</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="9"/>
         <v>0.20620887223638443</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3361,58 +3241,62 @@
         <v>2.3926216155084381</v>
       </c>
       <c r="P11">
+        <f t="shared" si="3"/>
+        <v>0.30096189493544395</v>
+      </c>
+      <c r="Q11">
         <v>0.18928216916161239</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>43</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="3"/>
+      <c r="S11">
+        <f t="shared" si="4"/>
         <v>0.80610659092639603</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>186</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="4"/>
-        <v>1.8527588070954095</v>
       </c>
       <c r="U11">
         <f t="shared" si="5"/>
+        <v>1.8527588070954095</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="6"/>
         <v>0.26781888636403539</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0.15334560603589339</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>57</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>197</v>
       </c>
-      <c r="Z11">
-        <f t="shared" si="6"/>
+      <c r="AA11">
+        <f t="shared" si="7"/>
         <v>2.2869530794264428</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>0.204062663545517</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>38</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>185</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="7"/>
-        <v>1.7185613470250365</v>
       </c>
       <c r="AE11">
         <f t="shared" si="8"/>
+        <v>1.7185613470250365</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="9"/>
         <v>0.23516503964398641</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3462,58 +3346,62 @@
         <v>2.9386570785818722</v>
       </c>
       <c r="P12">
+        <f t="shared" si="3"/>
+        <v>0.35234642602457927</v>
+      </c>
+      <c r="Q12">
         <v>0.13326140707084341</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>57</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="3"/>
+      <c r="S12">
+        <f t="shared" si="4"/>
         <v>0.75147684352085931</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>213</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="4"/>
-        <v>2.2755644571706459</v>
       </c>
       <c r="U12">
         <f t="shared" si="5"/>
+        <v>2.2755644571706459</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="6"/>
         <v>0.35708914175278716</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>0.12176325740526241</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>63</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>218</v>
       </c>
-      <c r="Z12">
-        <f t="shared" si="6"/>
+      <c r="AA12">
+        <f t="shared" si="7"/>
         <v>2.4904468548642371</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>0.14584626469720219</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>51</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>205</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="7"/>
-        <v>2.0792093789480335</v>
       </c>
       <c r="AE12">
         <f t="shared" si="8"/>
+        <v>2.0792093789480335</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="9"/>
         <v>0.31789822552344399</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3563,58 +3451,62 @@
         <v>3.0848699152367818</v>
       </c>
       <c r="P13">
+        <f t="shared" si="3"/>
+        <v>0.60048265893421593</v>
+      </c>
+      <c r="Q13">
         <v>0.11125506264545799</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>58</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="3"/>
+      <c r="S13">
+        <f t="shared" si="4"/>
         <v>0.74771945930325501</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>232</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="4"/>
-        <v>2.2834565223136507</v>
       </c>
       <c r="U13">
         <f t="shared" si="5"/>
+        <v>2.2834565223136507</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="6"/>
         <v>0.35859274692658549</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>8.2352991629462191E-2</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>78</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>263</v>
       </c>
-      <c r="Z13">
-        <f t="shared" si="6"/>
+      <c r="AA13">
+        <f t="shared" si="7"/>
         <v>3.0848435911258218</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>0.12737899513229861</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>49</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>229</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="7"/>
-        <v>1.9944112306297206</v>
       </c>
       <c r="AE13">
         <f t="shared" si="8"/>
+        <v>1.9944112306297206</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="9"/>
         <v>0.29981471103662327</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3664,58 +3556,62 @@
         <v>5.204207117320645</v>
       </c>
       <c r="P14">
+        <f t="shared" si="3"/>
+        <v>0.52918345102674358</v>
+      </c>
+      <c r="Q14">
         <v>6.4081695381845702E-2</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>84</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="3"/>
+      <c r="S14">
+        <f t="shared" si="4"/>
         <v>0.65635497682884381</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>239</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="4"/>
-        <v>3.3641808044002364</v>
       </c>
       <c r="U14">
         <f t="shared" si="5"/>
+        <v>3.3641808044002364</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="6"/>
         <v>0.52687932845858487</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>5.5126461082122498E-2</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>94</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>286</v>
       </c>
-      <c r="Z14">
-        <f t="shared" si="6"/>
+      <c r="AA14">
+        <f t="shared" si="7"/>
         <v>3.9106883570101316</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>7.9096074746327141E-2</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>70</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>244</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="7"/>
-        <v>2.7255765878197291</v>
       </c>
       <c r="AE14">
         <f t="shared" si="8"/>
+        <v>2.7255765878197291</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="9"/>
         <v>0.43545839006951775</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3765,58 +3661,62 @@
         <v>8.3269367246651562</v>
       </c>
       <c r="P15">
+        <f t="shared" si="3"/>
+        <v>0.60640921283991767</v>
+      </c>
+      <c r="Q15">
         <v>4.7909911351535182E-2</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>91</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="3"/>
+      <c r="S15">
+        <f t="shared" si="4"/>
         <v>0.63372428176440931</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>274</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="4"/>
-        <v>3.6961268459986489</v>
       </c>
       <c r="U15">
         <f t="shared" si="5"/>
+        <v>3.6961268459986489</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="6"/>
         <v>0.56774686719416567</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>3.0971771574335141E-2</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>120</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>324</v>
       </c>
-      <c r="Z15">
-        <f t="shared" si="6"/>
+      <c r="AA15">
+        <f t="shared" si="7"/>
         <v>5.7175001795042109</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>5.652813887860219E-2</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>80</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>272</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="7"/>
-        <v>3.1326187815260935</v>
       </c>
       <c r="AE15">
         <f t="shared" si="8"/>
+        <v>3.1326187815260935</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="9"/>
         <v>0.49590754740227994</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3866,58 +3766,62 @@
         <v>8.421700481732854</v>
       </c>
       <c r="P16">
+        <f t="shared" si="3"/>
+        <v>0.69702268937608935</v>
+      </c>
+      <c r="Q16">
         <v>3.1921528162708337E-2</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>106</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="3"/>
+      <c r="S16">
+        <f t="shared" si="4"/>
         <v>0.5878229785513488</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>285</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="4"/>
-        <v>4.613896586364163</v>
       </c>
       <c r="U16">
         <f t="shared" si="5"/>
+        <v>4.613896586364163</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
         <v>0.66406785622870035</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1.8572720467171549E-2</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>142</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>359</v>
       </c>
-      <c r="Z16">
-        <f t="shared" si="6"/>
+      <c r="AA16">
+        <f t="shared" si="7"/>
         <v>7.930051501166929</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>3.3394091705359973E-2</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>103</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>289</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="7"/>
-        <v>4.4104397604504291</v>
       </c>
       <c r="AE16">
         <f t="shared" si="8"/>
+        <v>4.4104397604504291</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="9"/>
         <v>0.6444818946866997</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3967,58 +3871,62 @@
         <v>10.993650194622081</v>
       </c>
       <c r="P17">
+        <f t="shared" si="3"/>
+        <v>0.81384487063248612</v>
+      </c>
+      <c r="Q17">
         <v>2.3746105670912631E-2</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>112</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="3"/>
+      <c r="S17">
+        <f t="shared" si="4"/>
         <v>0.57040725875414666</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>324</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="4"/>
-        <v>4.9535024951463997</v>
       </c>
       <c r="U17">
         <f t="shared" si="5"/>
+        <v>4.9535024951463997</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="6"/>
         <v>0.69491238608864614</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1.9528233316910251E-2</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>125</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>346</v>
       </c>
-      <c r="Z17">
-        <f t="shared" si="6"/>
+      <c r="AA17">
+        <f t="shared" si="7"/>
         <v>6.0234016965077206</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2.2359984984117291E-2</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>116</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>323</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="7"/>
-        <v>5.2605757013892447</v>
       </c>
       <c r="AE17">
         <f t="shared" si="8"/>
+        <v>5.2605757013892447</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="9"/>
         <v>0.7210332746204966</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4047,9 +3955,12 @@
         <f t="shared" si="0"/>
         <v>14.887395323531546</v>
       </c>
-      <c r="K18" s="3" t="e">
+      <c r="J18">
+        <v>1.0656169793936901E-2</v>
+      </c>
+      <c r="K18" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.9205069564735275</v>
       </c>
       <c r="L18">
         <v>7.2007509890292254E-3</v>
@@ -4065,58 +3976,62 @@
         <v>13.201183726670234</v>
       </c>
       <c r="P18">
+        <f t="shared" si="3"/>
+        <v>0.95038953623069311</v>
+      </c>
+      <c r="Q18">
         <v>1.9141044961146311E-2</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>113</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="3"/>
+      <c r="S18">
+        <f t="shared" si="4"/>
         <v>0.56755522246037593</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>339</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="4"/>
-        <v>4.9662093667891565</v>
       </c>
       <c r="U18">
         <f t="shared" si="5"/>
+        <v>4.9662093667891565</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="6"/>
         <v>0.69602502470798133</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>7.3097997793335557E-3</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>177</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>410</v>
       </c>
-      <c r="Z18">
-        <f t="shared" si="6"/>
+      <c r="AA18">
+        <f t="shared" si="7"/>
         <v>13.004246305750909</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>2.002410217248279E-2</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>110</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>342</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="7"/>
-        <v>4.7472009460083022</v>
       </c>
       <c r="AE18">
         <f t="shared" si="8"/>
+        <v>4.7472009460083022</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="9"/>
         <v>0.67643761551770776</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4145,9 +4060,12 @@
         <f t="shared" si="0"/>
         <v>21.066892434878426</v>
       </c>
-      <c r="K19" s="3" t="e">
+      <c r="J19">
+        <v>6.4533201601000099E-3</v>
+      </c>
+      <c r="K19" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>11.382457686543868</v>
       </c>
       <c r="L19">
         <v>3.5512123805362611E-3</v>
@@ -4163,58 +4081,62 @@
         <v>20.684384877303966</v>
       </c>
       <c r="P19">
+        <f t="shared" si="3"/>
+        <v>1.0562360445251724</v>
+      </c>
+      <c r="Q19">
         <v>1.0331340777537411E-2</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>139</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="3"/>
+      <c r="S19">
+        <f t="shared" si="4"/>
         <v>0.49820516271462467</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>377</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="4"/>
-        <v>7.1098848873289784</v>
       </c>
       <c r="U19">
         <f t="shared" si="5"/>
+        <v>7.1098848873289784</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
         <v>0.85186256933700621</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>5.0949803271321788E-3</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>186</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>430</v>
       </c>
-      <c r="Z19">
-        <f t="shared" si="6"/>
+      <c r="AA19">
+        <f t="shared" si="7"/>
         <v>14.417061292443579</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>1.460058488314056E-2</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>116</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>370</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" si="7"/>
-        <v>5.0309384348621302</v>
       </c>
       <c r="AE19">
         <f t="shared" si="8"/>
+        <v>5.0309384348621302</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="9"/>
         <v>0.70164900276338471</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4243,9 +4165,12 @@
         <f t="shared" si="0"/>
         <v>34.541744350771083</v>
       </c>
-      <c r="K20" s="3" t="e">
+      <c r="J20">
+        <v>3.6037390635925101E-3</v>
+      </c>
+      <c r="K20" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>16.451799537686732</v>
       </c>
       <c r="L20">
         <v>2.172538636004031E-3</v>
@@ -4261,58 +4186,62 @@
         <v>27.289729939810776</v>
       </c>
       <c r="P20">
+        <f t="shared" si="3"/>
+        <v>1.2162134090667216</v>
+      </c>
+      <c r="Q20">
         <v>5.8630888751574654E-3</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>162</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="3"/>
+      <c r="S20">
+        <f t="shared" si="4"/>
         <v>0.4439551321314546</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>408</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="4"/>
-        <v>10.112074696933972</v>
       </c>
       <c r="U20">
         <f t="shared" si="5"/>
+        <v>10.112074696933972</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="6"/>
         <v>1.0048402690421885</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>3.117297498486491E-3</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>204</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>452</v>
       </c>
-      <c r="Z20">
-        <f t="shared" si="6"/>
+      <c r="AA20">
+        <f t="shared" si="7"/>
         <v>19.019035779915249</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>7.6862521780408722E-3</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>144</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>382</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" si="7"/>
-        <v>7.713511251912454</v>
       </c>
       <c r="AE20">
         <f t="shared" si="8"/>
+        <v>7.713511251912454</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="9"/>
         <v>0.88725211737653442</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4341,10 +4270,6 @@
         <f t="shared" si="0"/>
         <v>56.256188587996768</v>
       </c>
-      <c r="K21" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L21">
         <v>1.019130025077946E-3</v>
       </c>
@@ -4358,59 +4283,59 @@
         <f t="shared" si="2"/>
         <v>43.936689849517279</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>4.8704717243094097E-3</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>158</v>
       </c>
-      <c r="R21">
-        <f t="shared" si="3"/>
+      <c r="S21">
+        <f t="shared" si="4"/>
         <v>0.45294634323474448</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>416</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="4"/>
-        <v>9.1936063615130621</v>
       </c>
       <c r="U21">
         <f t="shared" si="5"/>
+        <v>9.1936063615130621</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="6"/>
         <v>0.96348590482188912</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>1.335865511813306E-3</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>244</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>539</v>
       </c>
-      <c r="Z21">
-        <f t="shared" si="6"/>
+      <c r="AA21">
+        <f t="shared" si="7"/>
         <v>33.51924234304083</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>4.1278828518646277E-3</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>169</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>421</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="7"/>
-        <v>10.847497721005801</v>
       </c>
       <c r="AE21">
         <f t="shared" si="8"/>
+        <v>10.847497721005801</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="9"/>
         <v>1.0353295675585936</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4460,58 +4385,62 @@
         <v>87.737757865674951</v>
       </c>
       <c r="P22">
+        <f t="shared" si="3"/>
+        <v>1.5507271427273213</v>
+      </c>
+      <c r="Q22">
         <v>2.5510799189319292E-3</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>185</v>
       </c>
-      <c r="R22">
-        <f t="shared" si="3"/>
+      <c r="S22">
+        <f t="shared" si="4"/>
         <v>0.3956124386024385</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>438</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="4"/>
-        <v>13.589666884954449</v>
       </c>
       <c r="U22">
         <f t="shared" si="5"/>
+        <v>13.589666884954449</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="6"/>
         <v>1.1332088112726555</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>5.0261695642776891E-4</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>293</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>565</v>
       </c>
-      <c r="Z22">
-        <f t="shared" si="6"/>
+      <c r="AA22">
+        <f t="shared" si="7"/>
         <v>68.975640100919875</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>3.4460245991789571E-3</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>165</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>450</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="7"/>
-        <v>10.060382709816269</v>
       </c>
       <c r="AE22">
         <f t="shared" si="8"/>
+        <v>10.060382709816269</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="9"/>
         <v>1.002614502151314</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -4540,10 +4469,6 @@
         <f t="shared" si="0"/>
         <v>147.6703840262962</v>
       </c>
-      <c r="K23" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L23">
         <v>2.0743951537922261E-3</v>
       </c>
@@ -4557,59 +4482,59 @@
         <f t="shared" si="2"/>
         <v>12.860892952644464</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2.448927807603302E-3</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>170</v>
       </c>
-      <c r="R23">
-        <f t="shared" si="3"/>
+      <c r="S23">
+        <f t="shared" si="4"/>
         <v>0.4265046070983024</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>464</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="4"/>
-        <v>10.893981411610437</v>
       </c>
       <c r="U23">
         <f t="shared" si="5"/>
+        <v>10.893981411610437</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="6"/>
         <v>1.0371866299015062</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>3.021791464890997E-3</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>156</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>531</v>
       </c>
-      <c r="Z23">
-        <f t="shared" si="6"/>
+      <c r="AA23">
+        <f t="shared" si="7"/>
         <v>8.8287277015552199</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>5.599506674962988E-3</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>115</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>468</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="7"/>
-        <v>4.7644507923695993</v>
       </c>
       <c r="AE23">
         <f t="shared" si="8"/>
+        <v>4.7644507923695993</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="9"/>
         <v>0.67801284587886046</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -4638,10 +4563,6 @@
         <f t="shared" si="0"/>
         <v>283.61422109263867</v>
       </c>
-      <c r="K24" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L24">
         <v>1.2013163256146221E-3</v>
       </c>
@@ -4655,59 +4576,59 @@
         <f t="shared" si="2"/>
         <v>16.933233200754955</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1.5518148649686929E-3</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>183</v>
       </c>
-      <c r="R24">
-        <f t="shared" si="3"/>
+      <c r="S24">
+        <f t="shared" si="4"/>
         <v>0.39959843297132747</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>484</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="4"/>
-        <v>13.108631672964973</v>
       </c>
       <c r="U24">
         <f t="shared" si="5"/>
+        <v>13.108631672964973</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="6"/>
         <v>1.1175573608056428</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1.9730092871294768E-3</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>167</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>580</v>
       </c>
-      <c r="Z24">
-        <f t="shared" si="6"/>
+      <c r="AA24">
+        <f t="shared" si="7"/>
         <v>10.310224904770829</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>2.874598380942259E-3</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>142</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>492</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" si="7"/>
-        <v>7.0765257589961319</v>
       </c>
       <c r="AE24">
         <f t="shared" si="8"/>
+        <v>7.0765257589961319</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="9"/>
         <v>0.84982009186748164</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -4757,58 +4678,62 @@
         <v>20.112922701859329</v>
       </c>
       <c r="P25">
+        <f t="shared" si="3"/>
+        <v>2.1563076906915191</v>
+      </c>
+      <c r="Q25">
         <v>1.2954441650786131E-3</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>176</v>
       </c>
-      <c r="R25">
-        <f t="shared" si="3"/>
+      <c r="S25">
+        <f t="shared" si="4"/>
         <v>0.41386834584198789</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>510</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="4"/>
-        <v>11.350606300950728</v>
       </c>
       <c r="U25">
         <f t="shared" si="5"/>
+        <v>11.350606300950728</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="6"/>
         <v>1.0550190603066407</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>5.4939619512001808E-4</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>233</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>649</v>
       </c>
-      <c r="Z25">
-        <f t="shared" si="6"/>
+      <c r="AA25">
+        <f t="shared" si="7"/>
         <v>26.764067231042596</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1.6980906612630649E-3</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>158</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>514</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="7"/>
-        <v>8.6591823617556738</v>
       </c>
       <c r="AE25">
         <f t="shared" si="8"/>
+        <v>8.6591823617556738</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="9"/>
         <v>0.93747688595013734</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4858,58 +4783,62 @@
         <v>27.676409991503231</v>
       </c>
       <c r="P26">
+        <f t="shared" si="3"/>
+        <v>2.3830131590909156</v>
+      </c>
+      <c r="Q26">
         <v>8.6739235765539351E-4</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>184</v>
       </c>
-      <c r="R26">
-        <f t="shared" si="3"/>
+      <c r="S26">
+        <f t="shared" si="4"/>
         <v>0.39760044080647089</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>536</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="4"/>
-        <v>12.465193939211991</v>
       </c>
       <c r="U26">
         <f t="shared" si="5"/>
+        <v>12.465193939211991</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="6"/>
         <v>1.0956990398453574</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>4.4062204825537251E-4</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>229</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>667</v>
       </c>
-      <c r="Z26">
-        <f t="shared" si="6"/>
+      <c r="AA26">
+        <f t="shared" si="7"/>
         <v>24.538522305852354</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1.7063614353675009E-3</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>139</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>546</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="7"/>
-        <v>6.3364148623273193</v>
       </c>
       <c r="AE26">
         <f t="shared" si="8"/>
+        <v>6.3364148623273193</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="9"/>
         <v>0.80184360395409904</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4959,58 +4888,62 @@
         <v>25.004445909736194</v>
       </c>
       <c r="P27">
+        <f t="shared" si="3"/>
+        <v>2.6168783681819452</v>
+      </c>
+      <c r="Q27">
         <v>7.4239478544462151E-4</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>174</v>
       </c>
-      <c r="R27">
-        <f t="shared" si="3"/>
+      <c r="S27">
+        <f t="shared" si="4"/>
         <v>0.41803827766166302</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>583</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="4"/>
-        <v>10.606593050069035</v>
       </c>
       <c r="U27">
         <f t="shared" si="5"/>
+        <v>10.606593050069035</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="6"/>
         <v>1.0255759063175114</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>3.4983047639851762E-4</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>224</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>702</v>
       </c>
-      <c r="Z27">
-        <f t="shared" si="6"/>
+      <c r="AA27">
+        <f t="shared" si="7"/>
         <v>22.508843291098071</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>9.1633600410330474E-4</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>160</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>587</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="7"/>
-        <v>8.5932227222806965</v>
       </c>
       <c r="AE27">
         <f t="shared" si="8"/>
+        <v>8.5932227222806965</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="9"/>
         <v>0.93415606814113161</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -5045,59 +4978,59 @@
         <f t="shared" si="2"/>
         <v>64.191615546132638</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>4.5191075561145928E-4</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>187</v>
       </c>
-      <c r="R28">
-        <f t="shared" si="3"/>
+      <c r="S28">
+        <f t="shared" si="4"/>
         <v>0.39166620452737916</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>618</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="4"/>
-        <v>12.45669496910458</v>
       </c>
       <c r="U28">
         <f t="shared" si="5"/>
+        <v>12.45669496910458</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="6"/>
         <v>1.0954028298769898</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>2.5894802725311448E-4</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>224</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>718</v>
       </c>
-      <c r="Z28">
-        <f t="shared" si="6"/>
+      <c r="AA28">
+        <f t="shared" si="7"/>
         <v>21.739167104783601</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>3.6065316507506972E-4</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>202</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>620</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="7"/>
-        <v>15.608665002947571</v>
       </c>
       <c r="AE28">
         <f t="shared" si="8"/>
+        <v>15.608665002947571</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="9"/>
         <v>1.1933657597794791</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -5132,59 +5065,59 @@
         <f t="shared" si="2"/>
         <v>100.02965556372587</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>3.4650064046741908E-4</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>183</v>
       </c>
-      <c r="R29">
-        <f t="shared" si="3"/>
+      <c r="S29">
+        <f t="shared" si="4"/>
         <v>0.39959843297132747</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>606</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="4"/>
-        <v>11.465120538833153</v>
       </c>
       <c r="U29">
         <f t="shared" si="5"/>
+        <v>11.465120538833153</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="6"/>
         <v>1.0593786250559187</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>6.6226419223004753E-5</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>293</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>754</v>
       </c>
-      <c r="Z29">
-        <f t="shared" si="6"/>
+      <c r="AA29">
+        <f t="shared" si="7"/>
         <v>59.986205752188411</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>2.2063370939066421E-4</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>213</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>661</v>
-      </c>
-      <c r="AD29">
-        <f t="shared" si="7"/>
-        <v>18.005732762746845</v>
       </c>
       <c r="AE29">
         <f t="shared" si="8"/>
+        <v>18.005732762746845</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="9"/>
         <v>1.2554108001500677</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -5219,59 +5152,59 @@
         <f t="shared" si="2"/>
         <v>121.573506358515</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.099223626773884E-4</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>238</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="3"/>
+      <c r="S30">
+        <f t="shared" si="4"/>
         <v>0.30331453153725907</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>662</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="4"/>
-        <v>25.427997264777506</v>
       </c>
       <c r="U30">
         <f t="shared" si="5"/>
+        <v>25.427997264777506</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="6"/>
         <v>1.4053121560425117</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>7.2110467177280191E-5</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>266</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>773</v>
       </c>
-      <c r="Z30">
-        <f t="shared" si="6"/>
+      <c r="AA30">
+        <f t="shared" si="7"/>
         <v>38.761439870121457</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1.946715327098369E-4</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>200</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>636</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="7"/>
-        <v>14.358059951501447</v>
       </c>
       <c r="AE30">
         <f t="shared" si="8"/>
+        <v>14.358059951501447</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="9"/>
         <v>1.1570957623799967</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -5306,59 +5239,59 @@
         <f t="shared" si="2"/>
         <v>260.72783535780854</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>9.745540794700576E-5</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>223</v>
       </c>
-      <c r="R31">
-        <f t="shared" si="3"/>
+      <c r="S31">
+        <f t="shared" si="4"/>
         <v>0.32699943802956782</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>679</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="4"/>
-        <v>19.907639078631973</v>
       </c>
       <c r="U31">
         <f t="shared" si="5"/>
+        <v>19.907639078631973</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="6"/>
         <v>1.2990197584744663</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>3.9503283331052153E-5</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>283</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>841</v>
       </c>
-      <c r="Z31">
-        <f t="shared" si="6"/>
+      <c r="AA31">
+        <f t="shared" si="7"/>
         <v>49.112552782284361</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1.0665599676770109E-4</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>217</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>681</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" si="7"/>
-        <v>18.190323530475506</v>
       </c>
       <c r="AE31">
         <f t="shared" si="8"/>
+        <v>18.190323530475506</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="9"/>
         <v>1.259840423431307</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -5393,59 +5326,59 @@
         <f t="shared" si="2"/>
         <v>82.721310471759622</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>4.4795460358943681E-5</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>252</v>
       </c>
-      <c r="R32">
-        <f t="shared" si="3"/>
+      <c r="S32">
+        <f t="shared" si="4"/>
         <v>0.28275894195540657</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>755</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="4"/>
-        <v>29.291691094708181</v>
       </c>
       <c r="U32">
         <f t="shared" si="5"/>
+        <v>29.291691094708181</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="6"/>
         <v>1.4667444454917471</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>1.3241835050585621E-5</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>333</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>903</v>
       </c>
-      <c r="Z32">
-        <f t="shared" si="6"/>
+      <c r="AA32">
+        <f t="shared" si="7"/>
         <v>99.09010210948027</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>3.5214854466759648E-5</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>268</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>764</v>
-      </c>
-      <c r="AD32">
-        <f t="shared" si="7"/>
-        <v>37.260832314896746</v>
       </c>
       <c r="AE32">
         <f t="shared" si="8"/>
+        <v>37.260832314896746</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="9"/>
         <v>1.5712525517338594</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -5480,59 +5413,59 @@
         <f t="shared" si="2"/>
         <v>641.74652278132703</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>3.7207252013360522E-5</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>240</v>
       </c>
-      <c r="R33">
-        <f t="shared" si="3"/>
+      <c r="S33">
+        <f t="shared" si="4"/>
         <v>0.30028896908517488</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>785</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="4"/>
-        <v>23.808270571812375</v>
       </c>
       <c r="U33">
         <f t="shared" si="5"/>
+        <v>23.808270571812375</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="6"/>
         <v>1.376727849483113</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>3.506733193478684E-6</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>397</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>988</v>
       </c>
-      <c r="Z33">
-        <f t="shared" si="6"/>
+      <c r="AA33">
+        <f t="shared" si="7"/>
         <v>252.61126931899352</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>2.9251957114737981E-5</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>256</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>777</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="7"/>
-        <v>30.283113013364364</v>
       </c>
       <c r="AE33">
         <f t="shared" si="8"/>
+        <v>30.283113013364364</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="9"/>
         <v>1.4812005172955021</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -5567,59 +5500,59 @@
         <f t="shared" si="2"/>
         <v>243.5750056906673</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>6.6936589433679348E-6</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>330</v>
       </c>
-      <c r="R34">
-        <f t="shared" si="3"/>
+      <c r="S34">
+        <f t="shared" si="4"/>
         <v>0.19125669472892198</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>745</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="4"/>
-        <v>90.179769075149096</v>
       </c>
       <c r="U34">
         <f t="shared" si="5"/>
+        <v>90.179769075149096</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="6"/>
         <v>1.9551091188667939</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>3.105184351916214E-6</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>381</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>927</v>
       </c>
-      <c r="Z34">
-        <f t="shared" si="6"/>
+      <c r="AA34">
+        <f t="shared" si="7"/>
         <v>194.39509844503249</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>2.097593135202291E-5</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>254</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>839</v>
-      </c>
-      <c r="AD34">
-        <f t="shared" si="7"/>
-        <v>28.77739289142519</v>
       </c>
       <c r="AE34">
         <f t="shared" si="8"/>
+        <v>28.77739289142519</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="9"/>
         <v>1.4590514461622666</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -5654,59 +5587,59 @@
         <f t="shared" si="2"/>
         <v>1444.5064965958381</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>2.3829749900449889E-6</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>373</v>
       </c>
-      <c r="R35">
-        <f t="shared" si="3"/>
+      <c r="S35">
+        <f t="shared" si="4"/>
         <v>0.15417328217978171</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>784</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="4"/>
-        <v>165.38796488729798</v>
       </c>
       <c r="U35">
         <f t="shared" si="5"/>
+        <v>165.38796488729798</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="6"/>
         <v>2.2185039032019889</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>3.7981656322127602E-7</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>495</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>1071</v>
       </c>
-      <c r="Z35">
-        <f t="shared" si="6"/>
+      <c r="AA35">
+        <f t="shared" si="7"/>
         <v>1037.6466487883615</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>5.2857556338740488E-6</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>320</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>831</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" si="7"/>
-        <v>74.561786673443677</v>
       </c>
       <c r="AE35">
         <f t="shared" si="8"/>
+        <v>74.561786673443677</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="9"/>
         <v>1.8725163061742618</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -5741,59 +5674,59 @@
         <f t="shared" si="2"/>
         <v>367.13335932444875</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>2.9700209593469272E-6</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>333</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="3"/>
+      <c r="S36">
+        <f t="shared" si="4"/>
         <v>0.18840216465300599</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>834</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="4"/>
-        <v>86.570788819038754</v>
       </c>
       <c r="U36">
         <f t="shared" si="5"/>
+        <v>86.570788819038754</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="6"/>
         <v>1.93737137475646</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>1.603247342540473E-7</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>527</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>1125</v>
       </c>
-      <c r="Z36">
-        <f t="shared" si="6"/>
+      <c r="AA36">
+        <f t="shared" si="7"/>
         <v>1603.7267016598903</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>3.3000384550059288E-6</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>326</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>818</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="7"/>
-        <v>77.913351848889221</v>
       </c>
       <c r="AE36">
         <f t="shared" si="8"/>
+        <v>77.913351848889221</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="9"/>
         <v>1.8916118881914024</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -5828,59 +5761,59 @@
         <f t="shared" si="2"/>
         <v>3886.1455230897386</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>1.8358276123759021E-6</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>338</v>
       </c>
-      <c r="R37">
-        <f t="shared" si="3"/>
+      <c r="S37">
+        <f t="shared" si="4"/>
         <v>0.18373897616330628</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>816</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="4"/>
-        <v>90.337022990098276</v>
       </c>
       <c r="U37">
         <f t="shared" si="5"/>
+        <v>90.337022990098276</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="6"/>
         <v>1.9558657745110068</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>5.3490468980385078E-8</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>573</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>1122</v>
       </c>
-      <c r="Z37">
-        <f t="shared" si="6"/>
+      <c r="AA37">
+        <f t="shared" si="7"/>
         <v>3100.4252605426527</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>1.318377790712864E-6</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>360</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>858</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="7"/>
-        <v>125.79338213471081</v>
       </c>
       <c r="AE37">
         <f t="shared" si="8"/>
+        <v>125.79338213471081</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="9"/>
         <v>2.0996577939075203</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -5915,59 +5848,59 @@
         <f t="shared" si="2"/>
         <v>7465.7259500707496</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>4.0980096959595978E-7</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>411</v>
       </c>
-      <c r="R38">
-        <f t="shared" si="3"/>
+      <c r="S38">
+        <f t="shared" si="4"/>
         <v>0.12743425563174862</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>949</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="4"/>
-        <v>256.74916081678401</v>
       </c>
       <c r="U38">
         <f t="shared" si="5"/>
+        <v>256.74916081678401</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="6"/>
         <v>2.409509032782517</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>6.5341077350105654E-8</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>533</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>1180</v>
       </c>
-      <c r="Z38">
-        <f t="shared" si="6"/>
+      <c r="AA38">
+        <f t="shared" si="7"/>
         <v>1610.2589567341588</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>7.4819014781885813E-7</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>371</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>873</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" si="7"/>
-        <v>140.6274265337434</v>
       </c>
       <c r="AE38">
         <f t="shared" si="8"/>
+        <v>140.6274265337434</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="9"/>
         <v>2.1480700292945341</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -6002,59 +5935,59 @@
         <f t="shared" si="2"/>
         <v>6204.1861888947515</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>4.119759375536274E-7</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>383</v>
       </c>
-      <c r="R39">
-        <f t="shared" si="3"/>
+      <c r="S39">
+        <f t="shared" si="4"/>
         <v>0.14663577052834847</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>906</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="4"/>
-        <v>165.16478346246498</v>
       </c>
       <c r="U39">
         <f t="shared" si="5"/>
+        <v>165.16478346246498</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="6"/>
         <v>2.2179174523164304</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>2.9597592383318911E-8</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>558</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>1175</v>
       </c>
-      <c r="Z39">
-        <f t="shared" si="6"/>
+      <c r="AA39">
+        <f t="shared" si="7"/>
         <v>2298.9679578174118</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>5.4794900584454253E-7</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>364</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>981</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" si="7"/>
-        <v>124.17928637887785</v>
       </c>
       <c r="AE39">
         <f t="shared" si="8"/>
+        <v>124.17928637887785</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="9"/>
         <v>2.0940491597569766</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -6089,59 +6022,59 @@
         <f t="shared" si="2"/>
         <v>3716.3219181414602</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>1.152994034999871E-7</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>441</v>
       </c>
-      <c r="R40">
-        <f t="shared" si="3"/>
+      <c r="S40">
+        <f t="shared" si="4"/>
         <v>0.1096424190539729</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>949</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="4"/>
-        <v>377.36682371980271</v>
       </c>
       <c r="U40">
         <f t="shared" si="5"/>
+        <v>377.36682371980271</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="6"/>
         <v>2.5767637164204484</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>3.8454279510907913E-9</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>667</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>1291</v>
       </c>
-      <c r="Z40">
-        <f t="shared" si="6"/>
+      <c r="AA40">
+        <f t="shared" si="7"/>
         <v>11314.779584736718</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>1.8370180966875441E-7</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>410</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>1006</v>
-      </c>
-      <c r="AD40">
-        <f t="shared" si="7"/>
-        <v>236.85215596968951</v>
       </c>
       <c r="AE40">
         <f t="shared" si="8"/>
+        <v>236.85215596968951</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="9"/>
         <v>2.374477342289552</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -6176,59 +6109,59 @@
         <f t="shared" si="2"/>
         <v>53662.296338905879</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>9.9642715279229215E-8</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>423</v>
       </c>
-      <c r="R41">
-        <f t="shared" si="3"/>
+      <c r="S41">
+        <f t="shared" si="4"/>
         <v>0.11999500148501127</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>1038</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="4"/>
-        <v>277.32484256010287</v>
       </c>
       <c r="U41">
         <f t="shared" si="5"/>
+        <v>277.32484256010287</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="6"/>
         <v>2.4429887751080446</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>1.715465714126813E-9</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>693</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>1322</v>
       </c>
-      <c r="Z41">
-        <f t="shared" si="6"/>
+      <c r="AA41">
+        <f t="shared" si="7"/>
         <v>16108.395579995045</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>1.4085458696109769E-7</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>400</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>995</v>
-      </c>
-      <c r="AD41">
-        <f t="shared" si="7"/>
-        <v>196.18388668240817</v>
       </c>
       <c r="AE41">
         <f t="shared" si="8"/>
+        <v>196.18388668240817</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="9"/>
         <v>2.2926633342758853</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -6263,59 +6196,59 @@
         <f t="shared" si="2"/>
         <v>22405.046545121299</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>2.961577483404098E-8</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>477</v>
       </c>
-      <c r="R42">
-        <f t="shared" si="3"/>
+      <c r="S42">
+        <f t="shared" si="4"/>
         <v>9.1539706516458583E-2</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>1081</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="4"/>
-        <v>596.57301091872364</v>
       </c>
       <c r="U42">
         <f t="shared" si="5"/>
+        <v>596.57301091872364</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="6"/>
         <v>2.7756636019020062</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>1.355061171242043E-9</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>682</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>1361</v>
       </c>
-      <c r="Z42">
-        <f t="shared" si="6"/>
+      <c r="AA42">
+        <f t="shared" si="7"/>
         <v>13038.505078881721</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>4.6495034273459582E-8</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>447</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>1093</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" si="7"/>
-        <v>379.99696611730576</v>
       </c>
       <c r="AE42">
         <f t="shared" si="8"/>
+        <v>379.99696611730576</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="9"/>
         <v>2.5797801292384612</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -6350,59 +6283,59 @@
         <f t="shared" si="2"/>
         <v>7260.1346559782878</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>2.802560041225484E-8</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>453</v>
       </c>
-      <c r="R43">
-        <f t="shared" si="3"/>
+      <c r="S43">
+        <f t="shared" si="4"/>
         <v>0.10324180238648423</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>1089</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="4"/>
-        <v>392.07075227422052</v>
       </c>
       <c r="U43">
         <f t="shared" si="5"/>
+        <v>392.07075227422052</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="6"/>
         <v>2.5933644459735565</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>1.3845486860507721E-10</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>806</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>1424</v>
       </c>
-      <c r="Z43">
-        <f t="shared" si="6"/>
+      <c r="AA43">
+        <f t="shared" si="7"/>
         <v>79361.732435073965</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>2.3044761153734851E-8</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>466</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>1119</v>
-      </c>
-      <c r="AD43">
-        <f t="shared" si="7"/>
-        <v>476.81198183252326</v>
       </c>
       <c r="AE43">
         <f t="shared" si="8"/>
+        <v>476.81198183252326</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="9"/>
         <v>2.6783471602774109</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -6437,59 +6370,59 @@
         <f t="shared" si="2"/>
         <v>118632.75615373265</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>7.5004725605900429E-9</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>514</v>
       </c>
-      <c r="R44">
-        <f t="shared" si="3"/>
+      <c r="S44">
+        <f t="shared" si="4"/>
         <v>7.6043746131408019E-2</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>1072</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="4"/>
-        <v>947.85266625961196</v>
       </c>
       <c r="U44">
         <f t="shared" si="5"/>
+        <v>947.85266625961196</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="6"/>
         <v>2.9767408360688838</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>1.641236383351089E-10</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>768</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>1477</v>
       </c>
-      <c r="Z44">
-        <f t="shared" si="6"/>
+      <c r="AA44">
+        <f t="shared" si="7"/>
         <v>43316.995570415151</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>2.2479088701003581E-8</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>441</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>1087</v>
-      </c>
-      <c r="AD44">
-        <f t="shared" si="7"/>
-        <v>316.26472982621107</v>
       </c>
       <c r="AE44">
         <f t="shared" si="8"/>
+        <v>316.26472982621107</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="9"/>
         <v>2.5000507616408565</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -6524,59 +6457,59 @@
         <f t="shared" si="2"/>
         <v>12849.945895500514</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>4.5854170501793757E-9</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>519</v>
       </c>
-      <c r="R45">
-        <f t="shared" si="3"/>
+      <c r="S45">
+        <f t="shared" si="4"/>
         <v>7.416156859737208E-2</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>1205</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="4"/>
-        <v>952.00505066226526</v>
       </c>
       <c r="U45">
         <f t="shared" si="5"/>
+        <v>952.00505066226526</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="6"/>
         <v>2.9786392524484797</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>2.296964079549431E-10</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>718</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>1430</v>
       </c>
-      <c r="Z45">
-        <f t="shared" si="6"/>
+      <c r="AA45">
+        <f t="shared" si="7"/>
         <v>19004.825674156516</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>9.5897821857082764E-9</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>470</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>1053</v>
-      </c>
-      <c r="AD45">
-        <f t="shared" si="7"/>
-        <v>455.20743919182343</v>
       </c>
       <c r="AE45">
         <f t="shared" si="8"/>
+        <v>455.20743919182343</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="9"/>
         <v>2.6582093508684714</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -6611,59 +6544,59 @@
         <f t="shared" si="2"/>
         <v>40061.972918719679</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>7.0240561449092297E-9</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>464</v>
       </c>
-      <c r="R46">
-        <f t="shared" si="3"/>
+      <c r="S46">
+        <f t="shared" si="4"/>
         <v>9.7703352516643791E-2</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>1143</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="4"/>
-        <v>389.26266436359009</v>
       </c>
       <c r="U46">
         <f t="shared" si="5"/>
+        <v>389.26266436359009</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="6"/>
         <v>2.5902427509094008</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>3.6300784303360309E-11</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>814</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>1484</v>
       </c>
-      <c r="Z46">
-        <f t="shared" si="6"/>
+      <c r="AA46">
+        <f t="shared" si="7"/>
         <v>75320.764057257926</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>3.7913041847300069E-9</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>505</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>1159</v>
-      </c>
-      <c r="AD46">
-        <f t="shared" si="7"/>
-        <v>721.17737759454587</v>
       </c>
       <c r="AE46">
         <f t="shared" si="8"/>
+        <v>721.17737759454587</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="9"/>
         <v>2.8580420950055085</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -6698,70 +6631,70 @@
         <f t="shared" si="2"/>
         <v>182515.00648871897</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>2.2162897032089461E-10</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>666</v>
       </c>
-      <c r="R47">
-        <f t="shared" si="3"/>
+      <c r="S47">
+        <f t="shared" si="4"/>
         <v>3.5495375645938382E-2</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>1173</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="4"/>
-        <v>7973.1987871652991</v>
       </c>
       <c r="U47">
         <f t="shared" si="5"/>
+        <v>7973.1987871652991</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="6"/>
         <v>3.9016325920242165</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>4.7713103983702737E-12</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>921</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>1629</v>
       </c>
-      <c r="Z47">
-        <f t="shared" si="6"/>
+      <c r="AA47">
+        <f t="shared" si="7"/>
         <v>370357.76124874054</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>1.1074897766354831E-9</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>559</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>1189</v>
-      </c>
-      <c r="AD47">
-        <f t="shared" si="7"/>
-        <v>1595.5829793134678</v>
       </c>
       <c r="AE47">
         <f t="shared" si="8"/>
+        <v>1595.5829793134678</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="9"/>
         <v>3.2029193948791748</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="L48" t="s">
         <v>73</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>76</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -6801,7 +6734,7 @@
       <c r="O49" t="s">
         <v>62</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>63</v>
       </c>
     </row>
